--- a/models_enhanced_final/model_comparison_enhanced.xlsx
+++ b/models_enhanced_final/model_comparison_enhanced.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L151"/>
+  <dimension ref="A1:L133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1274,20 +1274,20 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Previous_EnsembleSoft_SMOTEENN</t>
+          <t>FocalOversample_LightGBM_BorderlineSMOTE_NoWeight</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.5897363818090955</v>
+        <v>0.5759158060482564</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7327380952380953</v>
+        <v>0.5473639455782313</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.6147360703812317</v>
       </c>
       <c r="F22" t="n">
-        <v>0.6988636363636364</v>
+        <v>0.9034090909090909</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1295,10 +1295,18 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.9470198675496688</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.8181818181818182</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1308,20 +1316,20 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FocalOversample_LightGBM_BorderlineSMOTE_NoWeight</t>
+          <t>FocalOversample_LightGBM_AggressiveROS_NoWeight</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.5759158060482564</v>
+        <v>0.5733766233766233</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5473639455782313</v>
+        <v>0.5149659863945578</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6147360703812317</v>
+        <v>0.6909937888198758</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9034090909090909</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1333,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="K23" t="n">
-        <v>0.9470198675496688</v>
+        <v>0.948051948051948</v>
       </c>
       <c r="L23" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="24">
@@ -1350,20 +1358,20 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FocalOversample_LightGBM_AggressiveROS_NoWeight</t>
+          <t>FocalOversample_LightGBM_SMOTETomek_Aggressive_NoWeight</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.5733766233766233</v>
+        <v>0.571045810924642</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5149659863945578</v>
+        <v>0.5323979591836735</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6909937888198758</v>
+        <v>0.6403481012658228</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.9034090909090909</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1375,13 +1383,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="K24" t="n">
-        <v>0.948051948051948</v>
+        <v>0.9442622950819672</v>
       </c>
       <c r="L24" t="n">
-        <v>0.8</v>
+        <v>0.8181818181818182</v>
       </c>
     </row>
     <row r="25">
@@ -1392,20 +1400,20 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FocalOversample_LightGBM_SMOTETomek_Aggressive_NoWeight</t>
+          <t>Optuna_LGBM_AggressiveTuned</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.571045810924642</v>
+        <v>0.5626535626535627</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5323979591836735</v>
+        <v>0.5555272108843538</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6403481012658228</v>
+        <v>0.5741906829846032</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9034090909090909</v>
+        <v>0.8806818181818182</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1417,10 +1425,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.5217391304347826</v>
+        <v>0.5</v>
       </c>
       <c r="K25" t="n">
-        <v>0.9442622950819672</v>
+        <v>0.9324324324324325</v>
       </c>
       <c r="L25" t="n">
         <v>0.8181818181818182</v>
@@ -1434,20 +1442,20 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Optuna_LGBM_AggressiveTuned</t>
+          <t>Previous_LightGBM_Tuned_Original</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.5626535626535627</v>
+        <v>0.5548914847016659</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5555272108843538</v>
+        <v>0.5073979591836735</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5741906829846032</v>
+        <v>0.6369390103567318</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8806818181818182</v>
+        <v>0.8977272727272727</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1455,18 +1463,10 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.9324324324324325</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.8181818181818182</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1476,20 +1476,20 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Previous_LightGBM_Tuned_Original</t>
+          <t>Previous_CatBoost_Tuned_Original</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.5548914847016659</v>
+        <v>0.5286754507628293</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5073979591836735</v>
+        <v>0.4757653061224489</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6369390103567318</v>
+        <v>0.6508487654320988</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8977272727272727</v>
+        <v>0.8920454545454546</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1510,31 +1510,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Previous_CatBoost_Tuned_Original</t>
+          <t>FocalOversample_BalancedRF_Original</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.5286754507628293</v>
+        <v>0.5275428359122301</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4757653061224489</v>
+        <v>0.8024659863945578</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6508487654320988</v>
+        <v>0.4660368651491902</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8920454545454546</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.4390243902439024</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+        <v>0.6598639455782312</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.782258064516129</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.4390243902439024</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1544,38 +1552,38 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FocalOversample_BalancedRF_Original</t>
+          <t>Stacking_SoftVoting</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.5275428359122301</v>
+        <v>0.5234547461368653</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8024659863945578</v>
+        <v>0.5089285714285714</v>
       </c>
       <c r="E29" t="n">
-        <v>0.4660368651491902</v>
+        <v>0.5521953405017921</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6818181818181818</v>
+        <v>0.875</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4390243902439024</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.6598639455782312</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4444444444444444</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="K29" t="n">
-        <v>0.782258064516129</v>
+        <v>0.9271523178807947</v>
       </c>
       <c r="L29" t="n">
-        <v>0.4390243902439024</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="30">
@@ -1586,7 +1594,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Stacking_SoftVoting</t>
+          <t>Stacking_WeightedSoftVoting</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1628,20 +1636,20 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Stacking_WeightedSoftVoting</t>
+          <t>FocalOversample_XGB_BorderlineSMOTE_NoWeight</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.5234547461368653</v>
+        <v>0.5203362923605261</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5089285714285714</v>
+        <v>0.4914965986394557</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5521953405017921</v>
+        <v>0.5850731546934078</v>
       </c>
       <c r="F31" t="n">
-        <v>0.875</v>
+        <v>0.8806818181818182</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1653,13 +1661,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="K31" t="n">
-        <v>0.9271523178807947</v>
+        <v>0.9311475409836065</v>
       </c>
       <c r="L31" t="n">
-        <v>0.75</v>
+        <v>0.6956521739130435</v>
       </c>
     </row>
     <row r="32">
@@ -1670,38 +1678,38 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>FocalOversample_XGB_BorderlineSMOTE_NoWeight</t>
+          <t>Optuna_XGB_AggressiveTuned</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.5203362923605261</v>
+        <v>0.5140473082888813</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4914965986394557</v>
+        <v>0.6806122448979592</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5850731546934078</v>
+        <v>0.6181759204857031</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8806818181818182</v>
+        <v>0.5227272727272727</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.3146067415730337</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.4557823129251701</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J32" t="n">
+        <v>0.3146067415730337</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.6203703703703703</v>
+      </c>
+      <c r="L32" t="n">
         <v>0.4545454545454545</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.9311475409836065</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0.6956521739130435</v>
       </c>
     </row>
     <row r="33">
@@ -1712,39 +1720,31 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Optuna_XGB_AggressiveTuned</t>
+          <t>Previous_XGB_OriginalWeighted_TunedCV</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.5140473082888813</v>
+        <v>0.5126436781609195</v>
       </c>
       <c r="D33" t="n">
-        <v>0.6806122448979592</v>
+        <v>0.5470238095238096</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6181759204857031</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.5227272727272727</v>
+        <v>0.8522727272727273</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3146067415730337</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.4557823129251701</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.3146067415730337</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.6203703703703703</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0.4545454545454545</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1754,20 +1754,20 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Previous_XGB_OriginalWeighted_TunedCV</t>
+          <t>Previous_CatBoost_Original</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.5126436781609195</v>
+        <v>0.5051206784083496</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5470238095238096</v>
+        <v>0.5303571428571429</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>0.4866020114942529</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8522727272727273</v>
+        <v>0.8465909090909091</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1788,31 +1788,39 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Previous_CatBoost_Original</t>
+          <t>Stacking_Stacking_LR</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.5051206784083496</v>
+        <v>0.5041883555041449</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5303571428571429</v>
+        <v>0.6584183673469388</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4866020114942529</v>
+        <v>0.5910326086956522</v>
       </c>
       <c r="F35" t="n">
-        <v>0.8465909090909091</v>
+        <v>0.7784090909090909</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+        <v>0.2</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.8771929824561403</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1822,38 +1830,38 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Stacking_Stacking_LR</t>
+          <t>FocalOversample_CatBoost_BorderlineSMOTE_NoWeight</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.5041883555041449</v>
+        <v>0.4839019228009758</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6584183673469388</v>
+        <v>0.465561224489796</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5910326086956522</v>
+        <v>0.5248397435897436</v>
       </c>
       <c r="F36" t="n">
-        <v>0.7784090909090909</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1538461538461539</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.1538461538461539</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="K36" t="n">
-        <v>0.8771929824561403</v>
+        <v>0.9174917491749175</v>
       </c>
       <c r="L36" t="n">
-        <v>0.7</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="37">
@@ -1864,38 +1872,38 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>FocalOversample_CatBoost_BorderlineSMOTE_NoWeight</t>
+          <t>FocalOversample_XGB_Original_FocalWeight</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.4839019228009758</v>
+        <v>0.4660910518053376</v>
       </c>
       <c r="D37" t="n">
-        <v>0.465561224489796</v>
+        <v>0.6674319727891156</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5248397435897436</v>
+        <v>0.6080048798798798</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8579545454545454</v>
+        <v>0.4147727272727273</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>0.3197278911564626</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J37" t="n">
-        <v>0.4347826086956522</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="K37" t="n">
-        <v>0.9174917491749175</v>
+        <v>0.4820512820512821</v>
       </c>
       <c r="L37" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.4489795918367347</v>
       </c>
     </row>
     <row r="38">
@@ -1906,39 +1914,31 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>FocalOversample_XGB_Original_FocalWeight</t>
+          <t>Previous_RF_Original</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.4660910518053376</v>
+        <v>0.4494256925219664</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6674319727891156</v>
+        <v>0.4240646258503401</v>
       </c>
       <c r="E38" t="n">
-        <v>0.6080048798798798</v>
+        <v>0.6445121951219512</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4147727272727273</v>
+        <v>0.8693181818181818</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2666666666666667</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.3197278911564626</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.4820512820512821</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0.4489795918367347</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1948,31 +1948,39 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Previous_RF_Original</t>
+          <t>FocalOversample_EasyEnsemble_Original</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.4494256925219664</v>
+        <v>0.412097812097812</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4240646258503401</v>
+        <v>0.7167517006802722</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6445121951219512</v>
+        <v>0.4120679012345678</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8693181818181818</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+        <v>0.5170068027210885</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.4864864864864865</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1982,39 +1990,31 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>FocalOversample_EasyEnsemble_Original</t>
+          <t>Previous_RF_SMOTEENN</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.412097812097812</v>
+        <v>0.4091478696741854</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7167517006802722</v>
+        <v>0.5079081632653062</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4120679012345678</v>
+        <v>0.380166511048864</v>
       </c>
       <c r="F40" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.7215909090909091</v>
       </c>
       <c r="G40" t="n">
-        <v>0.09523809523809523</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.5170068027210885</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.09523809523809523</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0.4864864864864865</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2024,20 +2024,20 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Previous_RF_SMOTEENN</t>
+          <t>Previous_RF_SMOTE</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.4091478696741854</v>
+        <v>0.4083305036785512</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5079081632653062</v>
+        <v>0.4312925170068027</v>
       </c>
       <c r="E41" t="n">
-        <v>0.380166511048864</v>
+        <v>0.452485380116959</v>
       </c>
       <c r="F41" t="n">
-        <v>0.7215909090909091</v>
+        <v>0.8295454545454546</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Previous_RF_SMOTE</t>
+          <t>Previous_RF_SMOTETomek</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -2092,20 +2092,20 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Previous_RF_SMOTETomek</t>
+          <t>Previous_BalancedRF_Original</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.4083305036785512</v>
+        <v>0.3856521739130435</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4312925170068027</v>
+        <v>0.5058673469387756</v>
       </c>
       <c r="E43" t="n">
-        <v>0.452485380116959</v>
+        <v>0.3659580985052683</v>
       </c>
       <c r="F43" t="n">
-        <v>0.8295454545454546</v>
+        <v>0.6647727272727273</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -2121,93 +2121,109 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>status_gizi_bbtb</t>
+          <t>status_gizi_bbu</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Previous_BalancedRF_Original</t>
+          <t>ThresholdOpt_LightGBM_Original_FocalWeight_ThresholdOpt</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.3856521739130435</v>
+        <v>0.6403654555565461</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5058673469387756</v>
+        <v>0.6354213273676361</v>
       </c>
       <c r="E44" t="n">
-        <v>0.3659580985052683</v>
+        <v>0.6465324384787472</v>
       </c>
       <c r="F44" t="n">
-        <v>0.6647727272727273</v>
+        <v>0.8522727272727273</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+        <v>0.4</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.3870967741935484</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.9194630872483222</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.5882352941176471</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>status_gizi_bbtb</t>
+          <t>status_gizi_bbu</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Previous_ExtraTrees_ADASYN</t>
+          <t>ThresholdOpt_LightGBM_AggressiveROS_NoWeight_ThresholdOpt</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.3850764386783506</v>
+        <v>0.6246651911317853</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3913265306122449</v>
+        <v>0.5887770320656227</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>0.6915064102564102</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8238636363636364</v>
+        <v>0.8465909090909091</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+        <v>0.2</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.9114754098360656</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.5263157894736842</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>status_gizi_bbtb</t>
+          <t>status_gizi_bbu</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Previous_ExtraTrees_SMOTETomek</t>
+          <t>Previous_XGB_OriginalWeighted</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.3743776563448694</v>
+        <v>0.5970989346275387</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3721938775510205</v>
+        <v>0.6004101416853095</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>0.5952564102564102</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8238636363636364</v>
+        <v>0.8352272727272727</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -2223,93 +2239,109 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>status_gizi_bbtb</t>
+          <t>status_gizi_bbu</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Previous_ExtraTrees_SMOTE</t>
+          <t>FocalOversample_XGB_AggressiveROS_NoWeight</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.3743776563448694</v>
+        <v>0.5867224352271406</v>
       </c>
       <c r="D47" t="n">
-        <v>0.3721938775510205</v>
+        <v>0.5870991797166294</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>0.592156862745098</v>
       </c>
       <c r="F47" t="n">
-        <v>0.8238636363636364</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+        <v>0.2</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.9139072847682119</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.5263157894736842</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>status_gizi_bbtb</t>
+          <t>status_gizi_bbu</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Previous_ExtraTrees_SMOTEENN</t>
+          <t>ThresholdOpt_XGB_AggressiveROS_NoWeight</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.327607425949103</v>
+        <v>0.5867224352271406</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4191326530612245</v>
+        <v>0.5870991797166294</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>0.592156862745098</v>
       </c>
       <c r="F48" t="n">
-        <v>0.625</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+        <v>0.2</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.9139072847682119</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.5263157894736842</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>status_gizi_bbtb</t>
+          <t>status_gizi_bbu</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Previous_ExtraTrees_Original</t>
+          <t>Previous_XGB_OriginalWeighted_TunedCV</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.273015873015873</v>
+        <v>0.5867224352271406</v>
       </c>
       <c r="D49" t="n">
-        <v>0.2748299319727891</v>
+        <v>0.5870991797166294</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -2330,39 +2362,31 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ThresholdOpt_LightGBM_Original_FocalWeight_ThresholdOpt</t>
+          <t>Previous_LightGBM_Original</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.6403654555565461</v>
+        <v>0.5828162969856781</v>
       </c>
       <c r="D50" t="n">
-        <v>0.6354213273676361</v>
+        <v>0.5754660700969425</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6465324384787472</v>
+        <v>0.6119901547116737</v>
       </c>
       <c r="F50" t="n">
         <v>0.8522727272727273</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3870967741935484</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.3870967741935484</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.9194630872483222</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.5882352941176471</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2372,35 +2396,35 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ThresholdOpt_LightGBM_AggressiveROS_NoWeight_ThresholdOpt</t>
+          <t>FocalOversample_LightGBM_AggressiveROS_NoWeight</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.6246651911317853</v>
+        <v>0.5491793208511474</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5887770320656227</v>
+        <v>0.5554436987322893</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6915064102564102</v>
+        <v>0.5546709129511678</v>
       </c>
       <c r="F51" t="n">
-        <v>0.8465909090909091</v>
+        <v>0.8352272727272727</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2608695652173913</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="I51" t="n">
-        <v>0.8</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J51" t="n">
-        <v>0.2608695652173913</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="K51" t="n">
-        <v>0.9114754098360656</v>
+        <v>0.9084967320261438</v>
       </c>
       <c r="L51" t="n">
         <v>0.5263157894736842</v>
@@ -2414,31 +2438,39 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Previous_XGB_OriginalWeighted</t>
+          <t>FocalOversample_EasyEnsemble_Original</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.5970989346275387</v>
+        <v>0.5471045764634288</v>
       </c>
       <c r="D52" t="n">
-        <v>0.6004101416853095</v>
+        <v>0.7237509321401938</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5952564102564102</v>
+        <v>0.5411574764033781</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8352272727272727</v>
+        <v>0.6193181818181818</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+        <v>0.5838926174496645</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.3421052631578947</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.7280334728033473</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.4516129032258064</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2448,38 +2480,38 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>FocalOversample_XGB_AggressiveROS_NoWeight</t>
+          <t>ThresholdOpt_EasyEnsemble_Original</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.5867224352271406</v>
+        <v>0.5471045764634288</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5870991797166294</v>
+        <v>0.7237509321401938</v>
       </c>
       <c r="E53" t="n">
-        <v>0.592156862745098</v>
+        <v>0.5411574764033781</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8409090909090909</v>
+        <v>0.6193181818181818</v>
       </c>
       <c r="G53" t="n">
-        <v>0.24</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="H53" t="n">
-        <v>0.2</v>
+        <v>0.5838926174496645</v>
       </c>
       <c r="I53" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="J53" t="n">
-        <v>0.24</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="K53" t="n">
-        <v>0.9139072847682119</v>
+        <v>0.7280334728033473</v>
       </c>
       <c r="L53" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.4516129032258064</v>
       </c>
     </row>
     <row r="54">
@@ -2490,20 +2522,20 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ThresholdOpt_XGB_AggressiveROS_NoWeight</t>
+          <t>FocalOversample_LightGBM_Original_FocalWeight</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.5867224352271406</v>
+        <v>0.5193017196456488</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5870991797166294</v>
+        <v>0.5037658463832961</v>
       </c>
       <c r="E54" t="n">
-        <v>0.592156862745098</v>
+        <v>0.549025974025974</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8409090909090909</v>
+        <v>0.8352272727272727</v>
       </c>
       <c r="G54" t="n">
         <v>0.24</v>
@@ -2512,13 +2544,13 @@
         <v>0.2</v>
       </c>
       <c r="I54" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4</v>
       </c>
       <c r="J54" t="n">
         <v>0.24</v>
       </c>
       <c r="K54" t="n">
-        <v>0.9139072847682119</v>
+        <v>0.9108910891089109</v>
       </c>
       <c r="L54" t="n">
         <v>0.5263157894736842</v>
@@ -2532,31 +2564,39 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Previous_XGB_OriginalWeighted_TunedCV</t>
+          <t>ThresholdOpt_XGB_BorderlineSMOTE_NoWeight_ThresholdOpt</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.5867224352271406</v>
+        <v>0.5139851281545093</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5870991797166294</v>
+        <v>0.4921327367636092</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>0.5584187261402451</v>
       </c>
       <c r="F55" t="n">
-        <v>0.8409090909090909</v>
+        <v>0.8465909090909091</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.9185667752442996</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.5555555555555556</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2566,20 +2606,20 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Previous_LightGBM_Original</t>
+          <t>Previous_LightGBM_Tanpa_SMOTE_CW</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.5828162969856781</v>
+        <v>0.5139851281545093</v>
       </c>
       <c r="D56" t="n">
-        <v>0.5754660700969425</v>
+        <v>0.4921327367636092</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6119901547116737</v>
+        <v>0.5584187261402451</v>
       </c>
       <c r="F56" t="n">
-        <v>0.8522727272727273</v>
+        <v>0.8465909090909091</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -2600,38 +2640,38 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>FocalOversample_LightGBM_AggressiveROS_NoWeight</t>
+          <t>Optuna_XGB_AggressiveTuned</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.5491793208511474</v>
+        <v>0.5096716701890019</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5554436987322893</v>
+        <v>0.6571961222967934</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5546709129511678</v>
+        <v>0.5151851851851852</v>
       </c>
       <c r="F57" t="n">
-        <v>0.8352272727272727</v>
+        <v>0.6704545454545454</v>
       </c>
       <c r="G57" t="n">
-        <v>0.09523809523809523</v>
+        <v>0.3768115942028986</v>
       </c>
       <c r="H57" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I57" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4</v>
       </c>
       <c r="J57" t="n">
-        <v>0.09523809523809523</v>
+        <v>0.3768115942028986</v>
       </c>
       <c r="K57" t="n">
-        <v>0.9084967320261438</v>
+        <v>0.7791164658634538</v>
       </c>
       <c r="L57" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.4827586206896552</v>
       </c>
     </row>
     <row r="58">
@@ -2642,38 +2682,38 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>FocalOversample_EasyEnsemble_Original</t>
+          <t>FocalOversample_XGB_BorderlineSMOTE_NoWeight</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.5471045764634288</v>
+        <v>0.505791662757607</v>
       </c>
       <c r="D58" t="n">
-        <v>0.7237509321401938</v>
+        <v>0.490454884414616</v>
       </c>
       <c r="E58" t="n">
-        <v>0.5411574764033781</v>
+        <v>0.5443585077343039</v>
       </c>
       <c r="F58" t="n">
-        <v>0.6193181818181818</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="G58" t="n">
-        <v>0.3421052631578947</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="H58" t="n">
-        <v>0.5838926174496645</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="I58" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4</v>
       </c>
       <c r="J58" t="n">
-        <v>0.3421052631578947</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="K58" t="n">
-        <v>0.7280334728033473</v>
+        <v>0.9150326797385621</v>
       </c>
       <c r="L58" t="n">
-        <v>0.4516129032258064</v>
+        <v>0.5263157894736842</v>
       </c>
     </row>
     <row r="59">
@@ -2684,38 +2724,38 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ThresholdOpt_EasyEnsemble_Original</t>
+          <t>Optuna_LGBM_AggressiveTuned</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.5471045764634288</v>
+        <v>0.5015563526961352</v>
       </c>
       <c r="D59" t="n">
-        <v>0.7237509321401938</v>
+        <v>0.4970544369873229</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5411574764033781</v>
+        <v>0.5170400069728929</v>
       </c>
       <c r="F59" t="n">
-        <v>0.6193181818181818</v>
+        <v>0.8125</v>
       </c>
       <c r="G59" t="n">
-        <v>0.3421052631578947</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="H59" t="n">
-        <v>0.5838926174496645</v>
+        <v>0.2</v>
       </c>
       <c r="I59" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4</v>
       </c>
       <c r="J59" t="n">
-        <v>0.3421052631578947</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="K59" t="n">
-        <v>0.7280334728033473</v>
+        <v>0.8993288590604027</v>
       </c>
       <c r="L59" t="n">
-        <v>0.4516129032258064</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="60">
@@ -2726,38 +2766,38 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>FocalOversample_LightGBM_Original_FocalWeight</t>
+          <t>FocalOversample_CatBoost_Original_FocalWeight</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.5193017196456488</v>
+        <v>0.497265625</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5037658463832961</v>
+        <v>0.6027964205816555</v>
       </c>
       <c r="E60" t="n">
-        <v>0.549025974025974</v>
+        <v>0.504216602528862</v>
       </c>
       <c r="F60" t="n">
-        <v>0.8352272727272727</v>
+        <v>0.6761363636363636</v>
       </c>
       <c r="G60" t="n">
-        <v>0.24</v>
+        <v>0.3384615384615385</v>
       </c>
       <c r="H60" t="n">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I60" t="n">
         <v>0.4</v>
       </c>
       <c r="J60" t="n">
-        <v>0.24</v>
+        <v>0.3384615384615385</v>
       </c>
       <c r="K60" t="n">
-        <v>0.9108910891089109</v>
+        <v>0.7890625</v>
       </c>
       <c r="L60" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.4615384615384616</v>
       </c>
     </row>
     <row r="61">
@@ -2768,39 +2808,31 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ThresholdOpt_XGB_BorderlineSMOTE_NoWeight_ThresholdOpt</t>
+          <t>Previous_CatBoost_Tuned_Original</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.5139851281545093</v>
+        <v>0.4958498396528957</v>
       </c>
       <c r="D61" t="n">
-        <v>0.4921327367636092</v>
+        <v>0.4788217747949292</v>
       </c>
       <c r="E61" t="n">
-        <v>0.5584187261402451</v>
+        <v>0.5484385783298826</v>
       </c>
       <c r="F61" t="n">
-        <v>0.8465909090909091</v>
+        <v>0.8522727272727273</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1818181818181818</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.1818181818181818</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.9185667752442996</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0.5555555555555556</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2810,20 +2842,20 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Previous_LightGBM_Tanpa_SMOTE_CW</t>
+          <t>Previous_BalancedRF_Original</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.5139851281545093</v>
+        <v>0.4838055538143297</v>
       </c>
       <c r="D62" t="n">
-        <v>0.4921327367636092</v>
+        <v>0.6244966442953019</v>
       </c>
       <c r="E62" t="n">
-        <v>0.5584187261402451</v>
+        <v>0.4585051195384368</v>
       </c>
       <c r="F62" t="n">
-        <v>0.8465909090909091</v>
+        <v>0.6988636363636364</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -2844,38 +2876,38 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Optuna_XGB_AggressiveTuned</t>
+          <t>FocalOversample_LightGBM_SVMSMOTE_NoWeight</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.5096716701890019</v>
+        <v>0.4720458199356913</v>
       </c>
       <c r="D63" t="n">
-        <v>0.6571961222967934</v>
+        <v>0.4382550335570469</v>
       </c>
       <c r="E63" t="n">
-        <v>0.5151851851851852</v>
+        <v>0.551278659611993</v>
       </c>
       <c r="F63" t="n">
-        <v>0.6704545454545454</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="G63" t="n">
-        <v>0.3768115942028986</v>
+        <v>0.2</v>
       </c>
       <c r="H63" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="I63" t="n">
         <v>0.4</v>
       </c>
       <c r="J63" t="n">
-        <v>0.3768115942028986</v>
+        <v>0.2</v>
       </c>
       <c r="K63" t="n">
-        <v>0.7791164658634538</v>
+        <v>0.9131832797427653</v>
       </c>
       <c r="L63" t="n">
-        <v>0.4827586206896552</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="64">
@@ -2886,38 +2918,38 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>FocalOversample_XGB_BorderlineSMOTE_NoWeight</t>
+          <t>FocalOversample_LightGBM_BorderlineSMOTE_NoWeight</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.505791662757607</v>
+        <v>0.4670442286947141</v>
       </c>
       <c r="D64" t="n">
-        <v>0.490454884414616</v>
+        <v>0.4587994034302759</v>
       </c>
       <c r="E64" t="n">
-        <v>0.5443585077343039</v>
+        <v>0.4842013888888889</v>
       </c>
       <c r="F64" t="n">
-        <v>0.8409090909090909</v>
+        <v>0.8352272727272727</v>
       </c>
       <c r="G64" t="n">
-        <v>0.1818181818181818</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1333333333333333</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0.4</v>
       </c>
       <c r="J64" t="n">
-        <v>0.1818181818181818</v>
+        <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>0.9150326797385621</v>
+        <v>0.912621359223301</v>
       </c>
       <c r="L64" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="65">
@@ -2928,39 +2960,31 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Optuna_LGBM_AggressiveTuned</t>
+          <t>Previous_LightGBM_Tuned_Original</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.5015563526961352</v>
+        <v>0.4450141044944015</v>
       </c>
       <c r="D65" t="n">
-        <v>0.4970544369873229</v>
+        <v>0.4271439224459359</v>
       </c>
       <c r="E65" t="n">
-        <v>0.5170400069728929</v>
+        <v>0.4852678571428571</v>
       </c>
       <c r="F65" t="n">
-        <v>0.8125</v>
+        <v>0.8522727272727273</v>
       </c>
       <c r="G65" t="n">
-        <v>0.2068965517241379</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.2068965517241379</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.8993288590604027</v>
-      </c>
-      <c r="L65" t="n">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2970,38 +2994,38 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>FocalOversample_CatBoost_Original_FocalWeight</t>
+          <t>FocalOversample_CatBoost_AggressiveROS_NoWeight</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.497265625</v>
+        <v>0.4369517543859649</v>
       </c>
       <c r="D66" t="n">
-        <v>0.6027964205816555</v>
+        <v>0.4387770320656227</v>
       </c>
       <c r="E66" t="n">
-        <v>0.504216602528862</v>
+        <v>0.4489410231345715</v>
       </c>
       <c r="F66" t="n">
-        <v>0.6761363636363636</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="G66" t="n">
-        <v>0.3384615384615385</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="I66" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.3384615384615385</v>
-      </c>
       <c r="K66" t="n">
-        <v>0.7890625</v>
+        <v>0.9144736842105263</v>
       </c>
       <c r="L66" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="67">
@@ -3012,31 +3036,39 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Previous_CatBoost_Tuned_Original</t>
+          <t>FocalOversample_BalancedRF_Original</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.4958498396528957</v>
+        <v>0.4350903997962822</v>
       </c>
       <c r="D67" t="n">
-        <v>0.4788217747949292</v>
+        <v>0.6011185682326622</v>
       </c>
       <c r="E67" t="n">
-        <v>0.5484385783298826</v>
+        <v>0.4011802531849702</v>
       </c>
       <c r="F67" t="n">
-        <v>0.8522727272727273</v>
+        <v>0.6704545454545454</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.4313725490196079</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.7843137254901961</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.3428571428571429</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3046,20 +3078,20 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Previous_BalancedRF_Original</t>
+          <t>FocalOversample_CatBoost_SMOTETomek_Aggressive_NoWeight</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.4838055538143297</v>
+        <v>0.4327227722772277</v>
       </c>
       <c r="D68" t="n">
-        <v>0.6244966442953019</v>
+        <v>0.4370991797166294</v>
       </c>
       <c r="E68" t="n">
-        <v>0.4585051195384368</v>
+        <v>0.4376623376623376</v>
       </c>
       <c r="F68" t="n">
-        <v>0.6988636363636364</v>
+        <v>0.8352272727272727</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -3067,10 +3099,18 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.9108910891089109</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3080,38 +3120,38 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>FocalOversample_LightGBM_SVMSMOTE_NoWeight</t>
+          <t>FocalOversample_XGB_SVMSMOTE_NoWeight</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.4720458199356913</v>
+        <v>0.416281399291108</v>
       </c>
       <c r="D69" t="n">
-        <v>0.4382550335570469</v>
+        <v>0.4104772557792692</v>
       </c>
       <c r="E69" t="n">
-        <v>0.551278659611993</v>
+        <v>0.4440972222222222</v>
       </c>
       <c r="F69" t="n">
-        <v>0.8409090909090909</v>
+        <v>0.8465909090909091</v>
       </c>
       <c r="G69" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.1333333333333333</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>0.2</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="K69" t="n">
-        <v>0.9131832797427653</v>
+        <v>0.919093851132686</v>
       </c>
       <c r="L69" t="n">
-        <v>0.375</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="70">
@@ -3122,20 +3162,20 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>FocalOversample_LightGBM_BorderlineSMOTE_NoWeight</t>
+          <t>FocalOversample_CatBoost_BorderlineSMOTE_NoWeight</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.4670442286947141</v>
+        <v>0.4144736842105263</v>
       </c>
       <c r="D70" t="n">
-        <v>0.4587994034302759</v>
+        <v>0.4204325130499627</v>
       </c>
       <c r="E70" t="n">
-        <v>0.4842013888888889</v>
+        <v>0.4195503421309873</v>
       </c>
       <c r="F70" t="n">
-        <v>0.8352272727272727</v>
+        <v>0.8295454545454546</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -3144,16 +3184,16 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K70" t="n">
-        <v>0.912621359223301</v>
+        <v>0.9078947368421053</v>
       </c>
       <c r="L70" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="71">
@@ -3164,20 +3204,20 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Previous_LightGBM_Tuned_Original</t>
+          <t>Previous_XGB_ADASYN</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.4450141044944015</v>
+        <v>0.4132395382395382</v>
       </c>
       <c r="D71" t="n">
-        <v>0.4271439224459359</v>
+        <v>0.4087994034302759</v>
       </c>
       <c r="E71" t="n">
-        <v>0.4852678571428571</v>
+        <v>0.4320155735250075</v>
       </c>
       <c r="F71" t="n">
-        <v>0.8522727272727273</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -3198,20 +3238,20 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>FocalOversample_CatBoost_AggressiveROS_NoWeight</t>
+          <t>Previous_CatBoost_Original</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.4369517543859649</v>
+        <v>0.4127227722772278</v>
       </c>
       <c r="D72" t="n">
-        <v>0.4387770320656227</v>
+        <v>0.4204325130499627</v>
       </c>
       <c r="E72" t="n">
-        <v>0.4489410231345715</v>
+        <v>0.4126623376623377</v>
       </c>
       <c r="F72" t="n">
-        <v>0.8409090909090909</v>
+        <v>0.8295454545454546</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -3219,18 +3259,10 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.9144736842105263</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3240,38 +3272,38 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>FocalOversample_BalancedRF_Original</t>
+          <t>FocalOversample_XGB_Original_FocalWeight</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.4350903997962822</v>
+        <v>0.4090048496395245</v>
       </c>
       <c r="D73" t="n">
-        <v>0.6011185682326622</v>
+        <v>0.6084265473527218</v>
       </c>
       <c r="E73" t="n">
-        <v>0.4011802531849702</v>
+        <v>0.4759925093632959</v>
       </c>
       <c r="F73" t="n">
-        <v>0.6704545454545454</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="G73" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="H73" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="I73" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.4</v>
       </c>
       <c r="J73" t="n">
-        <v>0.4313725490196079</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="K73" t="n">
-        <v>0.7843137254901961</v>
+        <v>0.5550239234449761</v>
       </c>
       <c r="L73" t="n">
-        <v>0.3428571428571429</v>
+        <v>0.4117647058823529</v>
       </c>
     </row>
     <row r="74">
@@ -3282,20 +3314,20 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>FocalOversample_CatBoost_SMOTETomek_Aggressive_NoWeight</t>
+          <t>Previous_CatBoost_Tanpa_SMOTE_CW</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.4327227722772277</v>
+        <v>0.4058688111005991</v>
       </c>
       <c r="D74" t="n">
-        <v>0.4370991797166294</v>
+        <v>0.4187546607009694</v>
       </c>
       <c r="E74" t="n">
-        <v>0.4376623376623376</v>
+        <v>0.4030228758169935</v>
       </c>
       <c r="F74" t="n">
-        <v>0.8352272727272727</v>
+        <v>0.8238636363636364</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -3303,18 +3335,10 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.9108910891089109</v>
-      </c>
-      <c r="L74" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3324,20 +3348,20 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>FocalOversample_XGB_SVMSMOTE_NoWeight</t>
+          <t>FocalOversample_XGB_SMOTETomek_Aggressive_NoWeight</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.416281399291108</v>
+        <v>0.4041438437723268</v>
       </c>
       <c r="D75" t="n">
-        <v>0.4104772557792692</v>
+        <v>0.3971662938105892</v>
       </c>
       <c r="E75" t="n">
-        <v>0.4440972222222222</v>
+        <v>0.4396088957055215</v>
       </c>
       <c r="F75" t="n">
-        <v>0.8465909090909091</v>
+        <v>0.8522727272727273</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -3349,13 +3373,13 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="K75" t="n">
-        <v>0.919093851132686</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L75" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5882352941176471</v>
       </c>
     </row>
     <row r="76">
@@ -3366,20 +3390,20 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>FocalOversample_CatBoost_BorderlineSMOTE_NoWeight</t>
+          <t>Previous_XGB_SMOTE</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.4144736842105263</v>
+        <v>0.4041438437723268</v>
       </c>
       <c r="D76" t="n">
-        <v>0.4204325130499627</v>
+        <v>0.3971662938105892</v>
       </c>
       <c r="E76" t="n">
-        <v>0.4195503421309873</v>
+        <v>0.4396088957055215</v>
       </c>
       <c r="F76" t="n">
-        <v>0.8295454545454546</v>
+        <v>0.8522727272727273</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -3387,18 +3411,10 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.9078947368421053</v>
-      </c>
-      <c r="L76" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3408,20 +3424,20 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Previous_XGB_ADASYN</t>
+          <t>Previous_RF_SMOTEENN</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.4132395382395382</v>
+        <v>0.3994022629531026</v>
       </c>
       <c r="D77" t="n">
-        <v>0.4087994034302759</v>
+        <v>0.5394854586129754</v>
       </c>
       <c r="E77" t="n">
-        <v>0.4320155735250075</v>
+        <v>0.3750718886588452</v>
       </c>
       <c r="F77" t="n">
-        <v>0.8409090909090909</v>
+        <v>0.6875</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -3442,17 +3458,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Previous_CatBoost_Original</t>
+          <t>FocalOversample_CatBoost_SVMSMOTE_NoWeight</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.4127227722772278</v>
+        <v>0.3975787284610814</v>
       </c>
       <c r="D78" t="n">
-        <v>0.4204325130499627</v>
+        <v>0.4054436987322894</v>
       </c>
       <c r="E78" t="n">
-        <v>0.4126623376623377</v>
+        <v>0.4064025146827694</v>
       </c>
       <c r="F78" t="n">
         <v>0.8295454545454546</v>
@@ -3463,10 +3479,18 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.9084967320261438</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3476,39 +3500,31 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>FocalOversample_XGB_Original_FocalWeight</t>
+          <t>Previous_XGB_SMOTEENN</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.4090048496395245</v>
+        <v>0.3963155238301247</v>
       </c>
       <c r="D79" t="n">
-        <v>0.6084265473527218</v>
+        <v>0.5327740492170022</v>
       </c>
       <c r="E79" t="n">
-        <v>0.4759925093632959</v>
+        <v>0.3790064102564102</v>
       </c>
       <c r="F79" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.6647727272727273</v>
       </c>
       <c r="G79" t="n">
-        <v>0.2692307692307692</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.2692307692307692</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.5550239234449761</v>
-      </c>
-      <c r="L79" t="n">
-        <v>0.4117647058823529</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3518,20 +3534,20 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Previous_CatBoost_Tanpa_SMOTE_CW</t>
+          <t>Previous_XGB_SMOTETomek</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.4058688111005991</v>
+        <v>0.3951082153400651</v>
       </c>
       <c r="D80" t="n">
-        <v>0.4187546607009694</v>
+        <v>0.3954884414615958</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4030228758169935</v>
+        <v>0.4220679012345679</v>
       </c>
       <c r="F80" t="n">
-        <v>0.8238636363636364</v>
+        <v>0.8465909090909091</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -3552,20 +3568,20 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>FocalOversample_XGB_SMOTETomek_Aggressive_NoWeight</t>
+          <t>FocalOversample_LightGBM_SMOTETomek_Aggressive_NoWeight</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.4041438437723268</v>
+        <v>0.392921146953405</v>
       </c>
       <c r="D81" t="n">
-        <v>0.3971662938105892</v>
+        <v>0.3938105891126025</v>
       </c>
       <c r="E81" t="n">
-        <v>0.4396088957055215</v>
+        <v>0.4093857832988268</v>
       </c>
       <c r="F81" t="n">
-        <v>0.8522727272727273</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -3577,13 +3593,13 @@
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.1</v>
       </c>
       <c r="K81" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.9161290322580645</v>
       </c>
       <c r="L81" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="82">
@@ -3594,20 +3610,20 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Previous_XGB_SMOTE</t>
+          <t>Previous_RF_SMOTE</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.4041438437723268</v>
+        <v>0.3906924551532814</v>
       </c>
       <c r="D82" t="n">
-        <v>0.3971662938105892</v>
+        <v>0.4182326621923937</v>
       </c>
       <c r="E82" t="n">
-        <v>0.4396088957055215</v>
+        <v>0.3994036027263875</v>
       </c>
       <c r="F82" t="n">
-        <v>0.8522727272727273</v>
+        <v>0.8352272727272727</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -3628,20 +3644,20 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Previous_EnsembleSoft_SMOTETomek</t>
+          <t>Stacking_SoftVoting</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.4025412796697626</v>
+        <v>0.3853140916808149</v>
       </c>
       <c r="D83" t="n">
-        <v>0.3954884414615958</v>
+        <v>0.3921327367636093</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>0.406444099378882</v>
       </c>
       <c r="F83" t="n">
-        <v>0.8465909090909091</v>
+        <v>0.8352272727272727</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -3649,10 +3665,18 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.9096774193548387</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.5263157894736842</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3662,20 +3686,20 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Previous_RF_SMOTEENN</t>
+          <t>Stacking_WeightedSoftVoting</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.3994022629531026</v>
+        <v>0.3826611984506721</v>
       </c>
       <c r="D84" t="n">
-        <v>0.5394854586129754</v>
+        <v>0.390454884414616</v>
       </c>
       <c r="E84" t="n">
-        <v>0.3750718886588452</v>
+        <v>0.3867924528301887</v>
       </c>
       <c r="F84" t="n">
-        <v>0.6875</v>
+        <v>0.8295454545454546</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -3683,10 +3707,18 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.5263157894736842</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3696,20 +3728,20 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>FocalOversample_CatBoost_SVMSMOTE_NoWeight</t>
+          <t>Previous_RF_SMOTETomek</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.3975787284610814</v>
+        <v>0.3794711292795094</v>
       </c>
       <c r="D85" t="n">
-        <v>0.4054436987322894</v>
+        <v>0.3921327367636093</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4064025146827694</v>
+        <v>0.3964488636363637</v>
       </c>
       <c r="F85" t="n">
-        <v>0.8295454545454546</v>
+        <v>0.8352272727272727</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -3717,18 +3749,10 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.1818181818181818</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.9084967320261438</v>
-      </c>
-      <c r="L85" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3738,20 +3762,20 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Previous_XGB_SMOTEENN</t>
+          <t>Previous_RF_ADASYN</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.3963155238301247</v>
+        <v>0.3726361357940305</v>
       </c>
       <c r="D86" t="n">
-        <v>0.5327740492170022</v>
+        <v>0.390454884414616</v>
       </c>
       <c r="E86" t="n">
-        <v>0.3790064102564102</v>
+        <v>0.3867924528301887</v>
       </c>
       <c r="F86" t="n">
-        <v>0.6647727272727273</v>
+        <v>0.8295454545454546</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -3772,20 +3796,20 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Previous_XGB_SMOTETomek</t>
+          <t>Previous_RF_Original</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.3951082153400651</v>
+        <v>0.3279874213836478</v>
       </c>
       <c r="D87" t="n">
-        <v>0.3954884414615958</v>
+        <v>0.3266219239373602</v>
       </c>
       <c r="E87" t="n">
-        <v>0.4220679012345679</v>
+        <v>0.3394970414201184</v>
       </c>
       <c r="F87" t="n">
-        <v>0.8465909090909091</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -3806,20 +3830,20 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>FocalOversample_LightGBM_SMOTETomek_Aggressive_NoWeight</t>
+          <t>Stacking_Stacking_LR</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.392921146953405</v>
+        <v>0.3247284878863826</v>
       </c>
       <c r="D88" t="n">
-        <v>0.3938105891126025</v>
+        <v>0.3121551081282625</v>
       </c>
       <c r="E88" t="n">
-        <v>0.4093857832988268</v>
+        <v>0.3778614457831325</v>
       </c>
       <c r="F88" t="n">
-        <v>0.8409090909090909</v>
+        <v>0.8295454545454546</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -3831,257 +3855,289 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>0.1</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="K88" t="n">
-        <v>0.9161290322580645</v>
+        <v>0.9079365079365079</v>
       </c>
       <c r="L88" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>status_gizi_bbu</t>
+          <t>status_gizi_tbu</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Previous_ExtraTrees_SMOTE</t>
+          <t>FocalOversample_LightGBM_AggressiveROS_NoWeight</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.3919542093364677</v>
+        <v>0.643841412786613</v>
       </c>
       <c r="D89" t="n">
-        <v>0.3810216256524981</v>
+        <v>0.5868488334931288</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>0.7566942551119766</v>
       </c>
       <c r="F89" t="n">
-        <v>0.8352272727272727</v>
+        <v>0.8806818181818182</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+        <v>0.3809523809523809</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.4705882352941176</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.9381107491856677</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>status_gizi_bbu</t>
+          <t>status_gizi_tbu</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Previous_RF_SMOTE</t>
+          <t>ThresholdOpt_LightGBM_AggressiveROS_NoWeight</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.3906924551532814</v>
+        <v>0.643841412786613</v>
       </c>
       <c r="D90" t="n">
-        <v>0.4182326621923937</v>
+        <v>0.5868488334931288</v>
       </c>
       <c r="E90" t="n">
-        <v>0.3994036027263875</v>
+        <v>0.7566942551119766</v>
       </c>
       <c r="F90" t="n">
-        <v>0.8352272727272727</v>
+        <v>0.8806818181818182</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+        <v>0.3809523809523809</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.4705882352941176</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.9381107491856677</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>status_gizi_bbu</t>
+          <t>status_gizi_tbu</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Stacking_SoftVoting</t>
+          <t>FocalOversample_LightGBM_Original_FocalWeight</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.3853140916808149</v>
+        <v>0.6112541528239203</v>
       </c>
       <c r="D91" t="n">
-        <v>0.3921327367636093</v>
+        <v>0.5903643336529243</v>
       </c>
       <c r="E91" t="n">
-        <v>0.406444099378882</v>
+        <v>0.6387061403508771</v>
       </c>
       <c r="F91" t="n">
-        <v>0.8352272727272727</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="J91" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.45</v>
       </c>
       <c r="K91" t="n">
-        <v>0.9096774193548387</v>
+        <v>0.9235880398671097</v>
       </c>
       <c r="L91" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>status_gizi_bbu</t>
+          <t>status_gizi_tbu</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Stacking_WeightedSoftVoting</t>
+          <t>ThresholdOpt_LightGBM_Original_FocalWeight</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.3826611984506721</v>
+        <v>0.6112541528239203</v>
       </c>
       <c r="D92" t="n">
-        <v>0.390454884414616</v>
+        <v>0.5903643336529243</v>
       </c>
       <c r="E92" t="n">
-        <v>0.3867924528301887</v>
+        <v>0.6387061403508771</v>
       </c>
       <c r="F92" t="n">
-        <v>0.8295454545454546</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="J92" t="n">
-        <v>0.09523809523809523</v>
+        <v>0.45</v>
       </c>
       <c r="K92" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.9235880398671097</v>
       </c>
       <c r="L92" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>status_gizi_bbu</t>
+          <t>status_gizi_tbu</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Previous_RF_SMOTETomek</t>
+          <t>FocalOversample_XGB_AggressiveROS_NoWeight</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.3794711292795094</v>
+        <v>0.6085526315789473</v>
       </c>
       <c r="D93" t="n">
-        <v>0.3921327367636093</v>
+        <v>0.5953978906999041</v>
       </c>
       <c r="E93" t="n">
-        <v>0.3964488636363637</v>
+        <v>0.6290322580645161</v>
       </c>
       <c r="F93" t="n">
-        <v>0.8352272727272727</v>
+        <v>0.875</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.9342105263157895</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>status_gizi_bbu</t>
+          <t>status_gizi_tbu</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Previous_RF_ADASYN</t>
+          <t>ThresholdOpt_XGB_AggressiveROS_NoWeight</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.3726361357940305</v>
+        <v>0.6085526315789473</v>
       </c>
       <c r="D94" t="n">
-        <v>0.390454884414616</v>
+        <v>0.5953978906999041</v>
       </c>
       <c r="E94" t="n">
-        <v>0.3867924528301887</v>
+        <v>0.6290322580645161</v>
       </c>
       <c r="F94" t="n">
-        <v>0.8295454545454546</v>
+        <v>0.875</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.9342105263157895</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>status_gizi_bbu</t>
+          <t>status_gizi_tbu</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Previous_ExtraTrees_SMOTETomek</t>
+          <t>Previous_XGB_OriginalWeighted</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.3673305860805861</v>
+        <v>0.5674499229583976</v>
       </c>
       <c r="D95" t="n">
-        <v>0.3532438478747204</v>
+        <v>0.595557686161713</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>0.5481933690688903</v>
       </c>
       <c r="F95" t="n">
-        <v>0.8295454545454546</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
@@ -4097,25 +4153,25 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>status_gizi_bbu</t>
+          <t>status_gizi_tbu</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Previous_ExtraTrees_ADASYN</t>
+          <t>Previous_LightGBM_Original</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.3673305860805861</v>
+        <v>0.565359477124183</v>
       </c>
       <c r="D96" t="n">
-        <v>0.3532438478747204</v>
+        <v>0.5328978906999041</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>0.6261146496815286</v>
       </c>
       <c r="F96" t="n">
-        <v>0.8295454545454546</v>
+        <v>0.8693181818181818</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
@@ -4131,93 +4187,109 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>status_gizi_bbu</t>
+          <t>status_gizi_tbu</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Previous_ExtraTrees_SMOTEENN</t>
+          <t>ThresholdOpt_CatBoost_AggressiveROS_NoWeight_ThresholdOpt</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.3477642276422764</v>
+        <v>0.5633186705767351</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5010067114093959</v>
+        <v>0.5124440715883669</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>0.744435817805383</v>
       </c>
       <c r="F97" t="n">
-        <v>0.6079545454545454</v>
+        <v>0.8693181818181818</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+        <v>0.25</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.4242424242424243</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.9290322580645162</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>status_gizi_bbu</t>
+          <t>status_gizi_tbu</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Previous_RF_Original</t>
+          <t>Optuna_LGBM_AggressiveTuned</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.3279874213836478</v>
+        <v>0.5526386312100597</v>
       </c>
       <c r="D98" t="n">
-        <v>0.3266219239373602</v>
+        <v>0.5938798338127197</v>
       </c>
       <c r="E98" t="n">
-        <v>0.3394970414201184</v>
+        <v>0.5230634682658671</v>
       </c>
       <c r="F98" t="n">
-        <v>0.8409090909090909</v>
+        <v>0.8352272727272727</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.9115646258503401</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>status_gizi_bbu</t>
+          <t>status_gizi_tbu</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Stacking_Stacking_LR</t>
+          <t>Previous_LightGBM_Tanpa_SMOTE_CW</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.3247284878863826</v>
+        <v>0.5498366013071895</v>
       </c>
       <c r="D99" t="n">
-        <v>0.3121551081282625</v>
+        <v>0.5193152764461489</v>
       </c>
       <c r="E99" t="n">
-        <v>0.3778614457831325</v>
+        <v>0.6078556263269639</v>
       </c>
       <c r="F99" t="n">
-        <v>0.8295454545454546</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
@@ -4225,41 +4297,33 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.1052631578947368</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.9079365079365079</v>
-      </c>
-      <c r="L99" t="n">
-        <v>0.2857142857142857</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>status_gizi_bbu</t>
+          <t>status_gizi_tbu</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Previous_ExtraTrees_Original</t>
+          <t>Previous_XGB_OriginalWeighted_TunedCV</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.2515625</v>
+        <v>0.5026232913428036</v>
       </c>
       <c r="D100" t="n">
-        <v>0.2599552572706935</v>
+        <v>0.5468000958772771</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>0.8295454545454546</v>
+        <v>0.8125</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
@@ -4280,35 +4344,35 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>FocalOversample_LightGBM_AggressiveROS_NoWeight</t>
+          <t>FocalOversample_LightGBM_SMOTETomek_Aggressive_NoWeight</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.643841412786613</v>
+        <v>0.4892742905772222</v>
       </c>
       <c r="D101" t="n">
-        <v>0.5868488334931288</v>
+        <v>0.4432326621923937</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7566942551119766</v>
+        <v>0.5808939873417721</v>
       </c>
       <c r="F101" t="n">
-        <v>0.8806818181818182</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="G101" t="n">
-        <v>0.4705882352941176</v>
+        <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.3809523809523809</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="K101" t="n">
-        <v>0.9381107491856677</v>
+        <v>0.9120521172638436</v>
       </c>
       <c r="L101" t="n">
         <v>0.6666666666666666</v>
@@ -4322,35 +4386,35 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ThresholdOpt_LightGBM_AggressiveROS_NoWeight</t>
+          <t>ThresholdOpt_LightGBM_SMOTETomek_Aggressive_NoWeight</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.643841412786613</v>
+        <v>0.4892742905772222</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5868488334931288</v>
+        <v>0.4432326621923937</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7566942551119766</v>
+        <v>0.5808939873417721</v>
       </c>
       <c r="F102" t="n">
-        <v>0.8806818181818182</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="G102" t="n">
-        <v>0.4705882352941176</v>
+        <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>0.3809523809523809</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="K102" t="n">
-        <v>0.9381107491856677</v>
+        <v>0.9120521172638436</v>
       </c>
       <c r="L102" t="n">
         <v>0.6666666666666666</v>
@@ -4364,39 +4428,31 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>FocalOversample_LightGBM_Original_FocalWeight</t>
+          <t>Previous_XGB_SMOTETomek</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.6112541528239203</v>
+        <v>0.4858961128310973</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5903643336529243</v>
+        <v>0.4415548098434005</v>
       </c>
       <c r="E103" t="n">
-        <v>0.6387061403508771</v>
+        <v>0.5742787560884226</v>
       </c>
       <c r="F103" t="n">
-        <v>0.8579545454545454</v>
+        <v>0.8352272727272727</v>
       </c>
       <c r="G103" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.9235880398671097</v>
-      </c>
-      <c r="L103" t="n">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4406,35 +4462,35 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ThresholdOpt_LightGBM_Original_FocalWeight</t>
+          <t>FocalOversample_CatBoost_AggressiveROS_NoWeight</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.6112541528239203</v>
+        <v>0.4778919799278105</v>
       </c>
       <c r="D104" t="n">
-        <v>0.5903643336529243</v>
+        <v>0.4703978906999041</v>
       </c>
       <c r="E104" t="n">
-        <v>0.6387061403508771</v>
+        <v>0.4903085443037974</v>
       </c>
       <c r="F104" t="n">
-        <v>0.8579545454545454</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="G104" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>0.4285714285714285</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0.5714285714285714</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>0.45</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="K104" t="n">
-        <v>0.9235880398671097</v>
+        <v>0.9250814332247557</v>
       </c>
       <c r="L104" t="n">
         <v>0.5</v>
@@ -4448,39 +4504,31 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>FocalOversample_XGB_AggressiveROS_NoWeight</t>
+          <t>Previous_XGB_SMOTE</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.6085526315789473</v>
+        <v>0.4772727272727273</v>
       </c>
       <c r="D105" t="n">
-        <v>0.5953978906999041</v>
+        <v>0.4313279002876318</v>
       </c>
       <c r="E105" t="n">
-        <v>0.6290322580645161</v>
+        <v>0.5701257861635221</v>
       </c>
       <c r="F105" t="n">
-        <v>0.875</v>
+        <v>0.8352272727272727</v>
       </c>
       <c r="G105" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J105" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.9342105263157895</v>
-      </c>
-      <c r="L105" t="n">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4490,39 +4538,31 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ThresholdOpt_XGB_AggressiveROS_NoWeight</t>
+          <t>Previous_XGB_ADASYN</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.6085526315789473</v>
+        <v>0.4748719307542837</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5953978906999041</v>
+        <v>0.4296500479386385</v>
       </c>
       <c r="E106" t="n">
-        <v>0.6290322580645161</v>
+        <v>0.5650875796178344</v>
       </c>
       <c r="F106" t="n">
-        <v>0.875</v>
+        <v>0.8295454545454546</v>
       </c>
       <c r="G106" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J106" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.9342105263157895</v>
-      </c>
-      <c r="L106" t="n">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4532,20 +4572,20 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Previous_XGB_OriginalWeighted</t>
+          <t>FocalOversample_XGB_SMOTETomek_Aggressive_NoWeight</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.5674499229583976</v>
+        <v>0.4741321125685947</v>
       </c>
       <c r="D107" t="n">
-        <v>0.595557686161713</v>
+        <v>0.4296500479386385</v>
       </c>
       <c r="E107" t="n">
-        <v>0.5481933690688903</v>
+        <v>0.5636867088607596</v>
       </c>
       <c r="F107" t="n">
-        <v>0.8409090909090909</v>
+        <v>0.8295454545454546</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
@@ -4553,10 +4593,18 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.3243243243243243</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.9055374592833876</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4566,20 +4614,20 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Previous_LightGBM_Original</t>
+          <t>Previous_RF_Original</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.565359477124183</v>
+        <v>0.4718728162124388</v>
       </c>
       <c r="D108" t="n">
-        <v>0.5328978906999041</v>
+        <v>0.419263342921061</v>
       </c>
       <c r="E108" t="n">
-        <v>0.6261146496815286</v>
+        <v>0.6341222879684418</v>
       </c>
       <c r="F108" t="n">
-        <v>0.8693181818181818</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="G108" t="n">
         <v>0</v>
@@ -4600,35 +4648,35 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ThresholdOpt_CatBoost_AggressiveROS_NoWeight_ThresholdOpt</t>
+          <t>FocalOversample_CatBoost_Original_FocalWeight</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.5633186705767351</v>
+        <v>0.4688461538461539</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5124440715883669</v>
+        <v>0.525467401725791</v>
       </c>
       <c r="E109" t="n">
-        <v>0.744435817805383</v>
+        <v>0.497053276756247</v>
       </c>
       <c r="F109" t="n">
-        <v>0.8693181818181818</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="G109" t="n">
-        <v>0.4</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H109" t="n">
         <v>0.25</v>
       </c>
       <c r="I109" t="n">
-        <v>0.4</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="J109" t="n">
-        <v>0.4242424242424243</v>
+        <v>0.3296703296703297</v>
       </c>
       <c r="K109" t="n">
-        <v>0.9290322580645162</v>
+        <v>0.76</v>
       </c>
       <c r="L109" t="n">
         <v>0.5</v>
@@ -4642,39 +4690,31 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Optuna_LGBM_AggressiveTuned</t>
+          <t>Previous_CatBoost_Tanpa_SMOTE_CW</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.5526386312100597</v>
+        <v>0.4661184210526316</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5938798338127197</v>
+        <v>0.4653643336529242</v>
       </c>
       <c r="E110" t="n">
-        <v>0.5230634682658671</v>
+        <v>0.4676146010186757</v>
       </c>
       <c r="F110" t="n">
-        <v>0.8352272727272727</v>
+        <v>0.8465909090909091</v>
       </c>
       <c r="G110" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>0.4761904761904762</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.9115646258503401</v>
-      </c>
-      <c r="L110" t="n">
-        <v>0.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -4684,20 +4724,20 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Previous_LightGBM_Tanpa_SMOTE_CW</t>
+          <t>Previous_CatBoost_Original</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.5498366013071895</v>
+        <v>0.4493821676627362</v>
       </c>
       <c r="D111" t="n">
-        <v>0.5193152764461489</v>
+        <v>0.4501038670501758</v>
       </c>
       <c r="E111" t="n">
-        <v>0.6078556263269639</v>
+        <v>0.4488562091503268</v>
       </c>
       <c r="F111" t="n">
-        <v>0.8579545454545454</v>
+        <v>0.8295454545454546</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
@@ -4718,20 +4758,20 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Previous_XGB_OriginalWeighted_TunedCV</t>
+          <t>Previous_LightGBM_Tuned_Original</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.5026232913428036</v>
+        <v>0.4416305916305916</v>
       </c>
       <c r="D112" t="n">
-        <v>0.5468000958772771</v>
+        <v>0.3959931287951422</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>0.6066037735849057</v>
       </c>
       <c r="F112" t="n">
-        <v>0.8125</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
@@ -4752,20 +4792,20 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Previous_EnsembleSoft_Original</t>
+          <t>Previous_RF_SMOTE</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.4970947337452192</v>
+        <v>0.4114125122189638</v>
       </c>
       <c r="D113" t="n">
-        <v>0.4716962288271013</v>
+        <v>0.407518376478108</v>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>0.4257246376811594</v>
       </c>
       <c r="F113" t="n">
-        <v>0.8352272727272727</v>
+        <v>0.8238636363636364</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
@@ -4786,20 +4826,20 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>FocalOversample_LightGBM_SMOTETomek_Aggressive_NoWeight</t>
+          <t>FocalOversample_CatBoost_SMOTETomek_Aggressive_NoWeight</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.4892742905772222</v>
+        <v>0.3307533539731682</v>
       </c>
       <c r="D114" t="n">
-        <v>0.4432326621923937</v>
+        <v>0.3267817193991691</v>
       </c>
       <c r="E114" t="n">
-        <v>0.5808939873417721</v>
+        <v>0.3373922817534657</v>
       </c>
       <c r="F114" t="n">
-        <v>0.8409090909090909</v>
+        <v>0.8295454545454546</v>
       </c>
       <c r="G114" t="n">
         <v>0</v>
@@ -4811,13 +4851,13 @@
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>0.3783783783783784</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="K114" t="n">
-        <v>0.9120521172638436</v>
+        <v>0.9019607843137255</v>
       </c>
       <c r="L114" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -4828,20 +4868,20 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ThresholdOpt_LightGBM_SMOTETomek_Aggressive_NoWeight</t>
+          <t>FocalOversample_CatBoost_BorderlineSMOTE_NoWeight</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.4892742905772222</v>
+        <v>0.3290322580645161</v>
       </c>
       <c r="D115" t="n">
-        <v>0.4432326621923937</v>
+        <v>0.3215883668903803</v>
       </c>
       <c r="E115" t="n">
-        <v>0.5808939873417721</v>
+        <v>0.3454968944099379</v>
       </c>
       <c r="F115" t="n">
-        <v>0.8409090909090909</v>
+        <v>0.8465909090909091</v>
       </c>
       <c r="G115" t="n">
         <v>0</v>
@@ -4853,13 +4893,13 @@
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>0.3783783783783784</v>
+        <v>0.4</v>
       </c>
       <c r="K115" t="n">
-        <v>0.9120521172638436</v>
+        <v>0.9161290322580645</v>
       </c>
       <c r="L115" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -4870,20 +4910,20 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Previous_XGB_SMOTETomek</t>
+          <t>Previous_CatBoost_Tuned_Original</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.4858961128310973</v>
+        <v>0.3276659132936101</v>
       </c>
       <c r="D116" t="n">
-        <v>0.4415548098434005</v>
+        <v>0.3147171620325983</v>
       </c>
       <c r="E116" t="n">
-        <v>0.5742787560884226</v>
+        <v>0.3696969696969697</v>
       </c>
       <c r="F116" t="n">
-        <v>0.8352272727272727</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="G116" t="n">
         <v>0</v>
@@ -4904,20 +4944,20 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>FocalOversample_CatBoost_AggressiveROS_NoWeight</t>
+          <t>FocalOversample_LightGBM_BorderlineSMOTE_NoWeight</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.4778919799278105</v>
+        <v>0.3261183261183261</v>
       </c>
       <c r="D117" t="n">
-        <v>0.4703978906999041</v>
+        <v>0.319910514541387</v>
       </c>
       <c r="E117" t="n">
-        <v>0.4903085443037974</v>
+        <v>0.3383647798742139</v>
       </c>
       <c r="F117" t="n">
-        <v>0.8636363636363636</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="G117" t="n">
         <v>0</v>
@@ -4929,13 +4969,13 @@
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>0.4864864864864865</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="K117" t="n">
-        <v>0.9250814332247557</v>
+        <v>0.9155844155844156</v>
       </c>
       <c r="L117" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -4946,20 +4986,20 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Previous_XGB_SMOTE</t>
+          <t>Stacking_WeightedSoftVoting</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.4772727272727273</v>
+        <v>0.3261183261183261</v>
       </c>
       <c r="D118" t="n">
-        <v>0.4313279002876318</v>
+        <v>0.319910514541387</v>
       </c>
       <c r="E118" t="n">
-        <v>0.5701257861635221</v>
+        <v>0.3383647798742139</v>
       </c>
       <c r="F118" t="n">
-        <v>0.8352272727272727</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="G118" t="n">
         <v>0</v>
@@ -4967,10 +5007,18 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.9155844155844156</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -4980,20 +5028,20 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Previous_XGB_ADASYN</t>
+          <t>FocalOversample_XGB_SVMSMOTE_NoWeight</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.4748719307542837</v>
+        <v>0.3208126278865829</v>
       </c>
       <c r="D119" t="n">
-        <v>0.4296500479386385</v>
+        <v>0.3113614573346117</v>
       </c>
       <c r="E119" t="n">
-        <v>0.5650875796178344</v>
+        <v>0.345679012345679</v>
       </c>
       <c r="F119" t="n">
-        <v>0.8295454545454546</v>
+        <v>0.8465909090909091</v>
       </c>
       <c r="G119" t="n">
         <v>0</v>
@@ -5001,10 +5049,18 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.9196141479099679</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -5014,20 +5070,20 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>FocalOversample_XGB_SMOTETomek_Aggressive_NoWeight</t>
+          <t>FocalOversample_XGB_BorderlineSMOTE_NoWeight</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.4741321125685947</v>
+        <v>0.3172675521821632</v>
       </c>
       <c r="D120" t="n">
-        <v>0.4296500479386385</v>
+        <v>0.3096836049856184</v>
       </c>
       <c r="E120" t="n">
-        <v>0.5636867088607596</v>
+        <v>0.3358815097945533</v>
       </c>
       <c r="F120" t="n">
-        <v>0.8295454545454546</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="G120" t="n">
         <v>0</v>
@@ -5039,13 +5095,13 @@
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>0.3243243243243243</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="K120" t="n">
-        <v>0.9055374592833876</v>
+        <v>0.9161290322580645</v>
       </c>
       <c r="L120" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -5056,20 +5112,20 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Previous_RF_Original</t>
+          <t>FocalOversample_LightGBM_SVMSMOTE_NoWeight</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.4718728162124388</v>
+        <v>0.313869625520111</v>
       </c>
       <c r="D121" t="n">
-        <v>0.419263342921061</v>
+        <v>0.3080057526366251</v>
       </c>
       <c r="E121" t="n">
-        <v>0.6341222879684418</v>
+        <v>0.3274553571428571</v>
       </c>
       <c r="F121" t="n">
-        <v>0.8636363636363636</v>
+        <v>0.8352272727272727</v>
       </c>
       <c r="G121" t="n">
         <v>0</v>
@@ -5077,10 +5133,18 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.3428571428571429</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.912621359223301</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -5090,38 +5154,38 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>FocalOversample_CatBoost_Original_FocalWeight</t>
+          <t>Stacking_SoftVoting</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.4688461538461539</v>
+        <v>0.313869625520111</v>
       </c>
       <c r="D122" t="n">
-        <v>0.525467401725791</v>
+        <v>0.3080057526366251</v>
       </c>
       <c r="E122" t="n">
-        <v>0.497053276756247</v>
+        <v>0.3274553571428571</v>
       </c>
       <c r="F122" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.8352272727272727</v>
       </c>
       <c r="G122" t="n">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>0.3296703296703297</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="K122" t="n">
-        <v>0.76</v>
+        <v>0.912621359223301</v>
       </c>
       <c r="L122" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -5132,20 +5196,20 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Previous_CatBoost_Tanpa_SMOTE_CW</t>
+          <t>FocalOversample_CatBoost_SVMSMOTE_NoWeight</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.4661184210526316</v>
+        <v>0.3131336405529954</v>
       </c>
       <c r="D123" t="n">
-        <v>0.4653643336529242</v>
+        <v>0.3080057526366251</v>
       </c>
       <c r="E123" t="n">
-        <v>0.4676146010186757</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="F123" t="n">
-        <v>0.8465909090909091</v>
+        <v>0.8352272727272727</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
@@ -5153,10 +5217,18 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.3428571428571429</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0.9096774193548387</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -5166,17 +5238,17 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Previous_CatBoost_Original</t>
+          <t>Previous_RF_SMOTETomek</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.4493821676627362</v>
+        <v>0.3115207373271889</v>
       </c>
       <c r="D124" t="n">
-        <v>0.4501038670501758</v>
+        <v>0.3063279002876318</v>
       </c>
       <c r="E124" t="n">
-        <v>0.4488562091503268</v>
+        <v>0.3245341614906832</v>
       </c>
       <c r="F124" t="n">
         <v>0.8295454545454546</v>
@@ -5200,20 +5272,20 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Previous_LightGBM_Tuned_Original</t>
+          <t>Previous_RF_ADASYN</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.4416305916305916</v>
+        <v>0.3049620607028754</v>
       </c>
       <c r="D125" t="n">
-        <v>0.3959931287951422</v>
+        <v>0.2977788430808565</v>
       </c>
       <c r="E125" t="n">
-        <v>0.6066037735849057</v>
+        <v>0.33009977827051</v>
       </c>
       <c r="F125" t="n">
-        <v>0.8579545454545454</v>
+        <v>0.8352272727272727</v>
       </c>
       <c r="G125" t="n">
         <v>0</v>
@@ -5234,20 +5306,20 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Previous_RF_SMOTE</t>
+          <t>Stacking_Stacking_LR</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.4114125122189638</v>
+        <v>0.2814041745730551</v>
       </c>
       <c r="D126" t="n">
-        <v>0.407518376478108</v>
+        <v>0.2791626717801214</v>
       </c>
       <c r="E126" t="n">
-        <v>0.4257246376811594</v>
+        <v>0.2912087912087912</v>
       </c>
       <c r="F126" t="n">
-        <v>0.8238636363636364</v>
+        <v>0.8068181818181818</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
@@ -5255,10 +5327,18 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.8903225806451613</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -5268,20 +5348,20 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>FocalOversample_CatBoost_SMOTETomek_Aggressive_NoWeight</t>
+          <t>Previous_RF_SMOTEENN</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.3307533539731682</v>
+        <v>0.242043795620438</v>
       </c>
       <c r="D127" t="n">
-        <v>0.3267817193991691</v>
+        <v>0.406240012783637</v>
       </c>
       <c r="E127" t="n">
-        <v>0.3373922817534657</v>
+        <v>0.3086967545638945</v>
       </c>
       <c r="F127" t="n">
-        <v>0.8295454545454546</v>
+        <v>0.3693181818181818</v>
       </c>
       <c r="G127" t="n">
         <v>0</v>
@@ -5289,18 +5369,10 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0.4210526315789473</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.9019607843137255</v>
-      </c>
-      <c r="L127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -5310,20 +5382,20 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>FocalOversample_CatBoost_BorderlineSMOTE_NoWeight</t>
+          <t>Previous_XGB_SMOTEENN</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.3290322580645161</v>
+        <v>0.2389245950717933</v>
       </c>
       <c r="D128" t="n">
-        <v>0.3215883668903803</v>
+        <v>0.4127916267178012</v>
       </c>
       <c r="E128" t="n">
-        <v>0.3454968944099379</v>
+        <v>0.2949820788530466</v>
       </c>
       <c r="F128" t="n">
-        <v>0.8465909090909091</v>
+        <v>0.4261363636363636</v>
       </c>
       <c r="G128" t="n">
         <v>0</v>
@@ -5331,18 +5403,10 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.9161290322580645</v>
-      </c>
-      <c r="L128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -5352,31 +5416,39 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Previous_CatBoost_Tuned_Original</t>
+          <t>FocalOversample_BalancedRF_Original</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.3276659132936101</v>
+        <v>0.2288790645202919</v>
       </c>
       <c r="D129" t="n">
-        <v>0.3147171620325983</v>
+        <v>0.4159276126558006</v>
       </c>
       <c r="E129" t="n">
-        <v>0.3696969696969697</v>
+        <v>0.2943637772127761</v>
       </c>
       <c r="F129" t="n">
-        <v>0.8579545454545454</v>
+        <v>0.3693181818181818</v>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+        <v>0.25</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0.05714285714285714</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.2962962962962963</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0.4975609756097561</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0.06451612903225806</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -5386,38 +5458,38 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>FocalOversample_LightGBM_BorderlineSMOTE_NoWeight</t>
+          <t>FocalOversample_EasyEnsemble_Original</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0.3261183261183261</v>
+        <v>0.2263229023907416</v>
       </c>
       <c r="D130" t="n">
-        <v>0.319910514541387</v>
+        <v>0.4415747842761266</v>
       </c>
       <c r="E130" t="n">
-        <v>0.3383647798742139</v>
+        <v>0.294055944055944</v>
       </c>
       <c r="F130" t="n">
-        <v>0.8409090909090909</v>
+        <v>0.3522727272727273</v>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="J130" t="n">
-        <v>0.3888888888888889</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="K130" t="n">
-        <v>0.9155844155844156</v>
+        <v>0.4522613065326633</v>
       </c>
       <c r="L130" t="n">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="131">
@@ -5428,20 +5500,20 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Stacking_WeightedSoftVoting</t>
+          <t>Previous_BalancedRF_Original</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.3261183261183261</v>
+        <v>0.2112957064895719</v>
       </c>
       <c r="D131" t="n">
-        <v>0.319910514541387</v>
+        <v>0.4127317034196229</v>
       </c>
       <c r="E131" t="n">
-        <v>0.3383647798742139</v>
+        <v>0.2829134050880626</v>
       </c>
       <c r="F131" t="n">
-        <v>0.8409090909090909</v>
+        <v>0.3238636363636364</v>
       </c>
       <c r="G131" t="n">
         <v>0</v>
@@ -5449,18 +5521,10 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="n">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0.9155844155844156</v>
-      </c>
-      <c r="L131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -5470,38 +5534,38 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>FocalOversample_XGB_SVMSMOTE_NoWeight</t>
+          <t>FocalOversample_XGB_Original_FocalWeight</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.3208126278865829</v>
+        <v>0.1556350569896078</v>
       </c>
       <c r="D132" t="n">
-        <v>0.3113614573346117</v>
+        <v>0.4440516139341643</v>
       </c>
       <c r="E132" t="n">
-        <v>0.345679012345679</v>
+        <v>0.3223039215686275</v>
       </c>
       <c r="F132" t="n">
-        <v>0.8465909090909091</v>
+        <v>0.1875</v>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>0.0738255033557047</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="J132" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.2547770700636943</v>
       </c>
       <c r="K132" t="n">
-        <v>0.9196141479099679</v>
+        <v>0.1375</v>
       </c>
       <c r="L132" t="n">
-        <v>0</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
     <row r="133">
@@ -5512,20 +5576,20 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>FocalOversample_XGB_BorderlineSMOTE_NoWeight</t>
+          <t>Optuna_XGB_AggressiveTuned</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.3172675521821632</v>
+        <v>0.1092763912794033</v>
       </c>
       <c r="D133" t="n">
-        <v>0.3096836049856184</v>
+        <v>0.4017857142857143</v>
       </c>
       <c r="E133" t="n">
-        <v>0.3358815097945533</v>
+        <v>0.06502571082879613</v>
       </c>
       <c r="F133" t="n">
-        <v>0.8409090909090909</v>
+        <v>0.1136363636363636</v>
       </c>
       <c r="G133" t="n">
         <v>0</v>
@@ -5534,691 +5598,15 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="J133" t="n">
-        <v>0.3529411764705883</v>
+        <v>0.2168674698795181</v>
       </c>
       <c r="K133" t="n">
-        <v>0.9161290322580645</v>
+        <v>0</v>
       </c>
       <c r="L133" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>status_gizi_tbu</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>FocalOversample_LightGBM_SVMSMOTE_NoWeight</t>
-        </is>
-      </c>
-      <c r="C134" t="n">
-        <v>0.313869625520111</v>
-      </c>
-      <c r="D134" t="n">
-        <v>0.3080057526366251</v>
-      </c>
-      <c r="E134" t="n">
-        <v>0.3274553571428571</v>
-      </c>
-      <c r="F134" t="n">
-        <v>0.8352272727272727</v>
-      </c>
-      <c r="G134" t="n">
-        <v>0</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
-        <v>0.3428571428571429</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0.912621359223301</v>
-      </c>
-      <c r="L134" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>status_gizi_tbu</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Stacking_SoftVoting</t>
-        </is>
-      </c>
-      <c r="C135" t="n">
-        <v>0.313869625520111</v>
-      </c>
-      <c r="D135" t="n">
-        <v>0.3080057526366251</v>
-      </c>
-      <c r="E135" t="n">
-        <v>0.3274553571428571</v>
-      </c>
-      <c r="F135" t="n">
-        <v>0.8352272727272727</v>
-      </c>
-      <c r="G135" t="n">
-        <v>0</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="n">
-        <v>0.3428571428571429</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0.912621359223301</v>
-      </c>
-      <c r="L135" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>status_gizi_tbu</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>FocalOversample_CatBoost_SVMSMOTE_NoWeight</t>
-        </is>
-      </c>
-      <c r="C136" t="n">
-        <v>0.3131336405529954</v>
-      </c>
-      <c r="D136" t="n">
-        <v>0.3080057526366251</v>
-      </c>
-      <c r="E136" t="n">
-        <v>0.3260869565217391</v>
-      </c>
-      <c r="F136" t="n">
-        <v>0.8352272727272727</v>
-      </c>
-      <c r="G136" t="n">
-        <v>0</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="n">
-        <v>0.3428571428571429</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.9096774193548387</v>
-      </c>
-      <c r="L136" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>status_gizi_tbu</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Previous_RF_SMOTETomek</t>
-        </is>
-      </c>
-      <c r="C137" t="n">
-        <v>0.3115207373271889</v>
-      </c>
-      <c r="D137" t="n">
-        <v>0.3063279002876318</v>
-      </c>
-      <c r="E137" t="n">
-        <v>0.3245341614906832</v>
-      </c>
-      <c r="F137" t="n">
-        <v>0.8295454545454546</v>
-      </c>
-      <c r="G137" t="n">
-        <v>0</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>status_gizi_tbu</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Previous_RF_ADASYN</t>
-        </is>
-      </c>
-      <c r="C138" t="n">
-        <v>0.3049620607028754</v>
-      </c>
-      <c r="D138" t="n">
-        <v>0.2977788430808565</v>
-      </c>
-      <c r="E138" t="n">
-        <v>0.33009977827051</v>
-      </c>
-      <c r="F138" t="n">
-        <v>0.8352272727272727</v>
-      </c>
-      <c r="G138" t="n">
-        <v>0</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>status_gizi_tbu</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Stacking_Stacking_LR</t>
-        </is>
-      </c>
-      <c r="C139" t="n">
-        <v>0.2814041745730551</v>
-      </c>
-      <c r="D139" t="n">
-        <v>0.2791626717801214</v>
-      </c>
-      <c r="E139" t="n">
-        <v>0.2912087912087912</v>
-      </c>
-      <c r="F139" t="n">
-        <v>0.8068181818181818</v>
-      </c>
-      <c r="G139" t="n">
-        <v>0</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="n">
-        <v>0.2352941176470588</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.8903225806451613</v>
-      </c>
-      <c r="L139" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>status_gizi_tbu</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Previous_ExtraTrees_SMOTETomek</t>
-        </is>
-      </c>
-      <c r="C140" t="n">
-        <v>0.2763347763347763</v>
-      </c>
-      <c r="D140" t="n">
-        <v>0.2758069670821349</v>
-      </c>
-      <c r="E140" t="n">
-        <v>0</v>
-      </c>
-      <c r="F140" t="n">
-        <v>0.7954545454545454</v>
-      </c>
-      <c r="G140" t="n">
-        <v>0</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>status_gizi_tbu</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Previous_ExtraTrees_ADASYN</t>
-        </is>
-      </c>
-      <c r="C141" t="n">
-        <v>0.2763347763347763</v>
-      </c>
-      <c r="D141" t="n">
-        <v>0.2758069670821349</v>
-      </c>
-      <c r="E141" t="n">
-        <v>0</v>
-      </c>
-      <c r="F141" t="n">
-        <v>0.7954545454545454</v>
-      </c>
-      <c r="G141" t="n">
-        <v>0</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>status_gizi_tbu</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Previous_ExtraTrees_SMOTE</t>
-        </is>
-      </c>
-      <c r="C142" t="n">
-        <v>0.2763347763347763</v>
-      </c>
-      <c r="D142" t="n">
-        <v>0.2758069670821349</v>
-      </c>
-      <c r="E142" t="n">
-        <v>0</v>
-      </c>
-      <c r="F142" t="n">
-        <v>0.7954545454545454</v>
-      </c>
-      <c r="G142" t="n">
-        <v>0</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>status_gizi_tbu</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>Previous_ExtraTrees_Original</t>
-        </is>
-      </c>
-      <c r="C143" t="n">
-        <v>0.2629218677762367</v>
-      </c>
-      <c r="D143" t="n">
-        <v>0.263902205177373</v>
-      </c>
-      <c r="E143" t="n">
-        <v>0</v>
-      </c>
-      <c r="F143" t="n">
-        <v>0.7897727272727273</v>
-      </c>
-      <c r="G143" t="n">
-        <v>0</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>status_gizi_tbu</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>Previous_RF_SMOTEENN</t>
-        </is>
-      </c>
-      <c r="C144" t="n">
-        <v>0.242043795620438</v>
-      </c>
-      <c r="D144" t="n">
-        <v>0.406240012783637</v>
-      </c>
-      <c r="E144" t="n">
-        <v>0.3086967545638945</v>
-      </c>
-      <c r="F144" t="n">
-        <v>0.3693181818181818</v>
-      </c>
-      <c r="G144" t="n">
-        <v>0</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>status_gizi_tbu</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Previous_XGB_SMOTEENN</t>
-        </is>
-      </c>
-      <c r="C145" t="n">
-        <v>0.2389245950717933</v>
-      </c>
-      <c r="D145" t="n">
-        <v>0.4127916267178012</v>
-      </c>
-      <c r="E145" t="n">
-        <v>0.2949820788530466</v>
-      </c>
-      <c r="F145" t="n">
-        <v>0.4261363636363636</v>
-      </c>
-      <c r="G145" t="n">
-        <v>0</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>status_gizi_tbu</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>FocalOversample_BalancedRF_Original</t>
-        </is>
-      </c>
-      <c r="C146" t="n">
-        <v>0.2288790645202919</v>
-      </c>
-      <c r="D146" t="n">
-        <v>0.4159276126558006</v>
-      </c>
-      <c r="E146" t="n">
-        <v>0.2943637772127761</v>
-      </c>
-      <c r="F146" t="n">
-        <v>0.3693181818181818</v>
-      </c>
-      <c r="G146" t="n">
-        <v>0.05714285714285714</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0.05714285714285714</v>
-      </c>
-      <c r="J146" t="n">
-        <v>0.2962962962962963</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.4975609756097561</v>
-      </c>
-      <c r="L146" t="n">
-        <v>0.06451612903225806</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>status_gizi_tbu</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>FocalOversample_EasyEnsemble_Original</t>
-        </is>
-      </c>
-      <c r="C147" t="n">
-        <v>0.2263229023907416</v>
-      </c>
-      <c r="D147" t="n">
-        <v>0.4415747842761266</v>
-      </c>
-      <c r="E147" t="n">
-        <v>0.294055944055944</v>
-      </c>
-      <c r="F147" t="n">
-        <v>0.3522727272727273</v>
-      </c>
-      <c r="G147" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="J147" t="n">
-        <v>0.303030303030303</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0.4522613065326633</v>
-      </c>
-      <c r="L147" t="n">
-        <v>0.08333333333333333</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>status_gizi_tbu</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Previous_BalancedRF_Original</t>
-        </is>
-      </c>
-      <c r="C148" t="n">
-        <v>0.2112957064895719</v>
-      </c>
-      <c r="D148" t="n">
-        <v>0.4127317034196229</v>
-      </c>
-      <c r="E148" t="n">
-        <v>0.2829134050880626</v>
-      </c>
-      <c r="F148" t="n">
-        <v>0.3238636363636364</v>
-      </c>
-      <c r="G148" t="n">
-        <v>0</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>status_gizi_tbu</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Previous_ExtraTrees_SMOTEENN</t>
-        </is>
-      </c>
-      <c r="C149" t="n">
-        <v>0.1834489071065434</v>
-      </c>
-      <c r="D149" t="n">
-        <v>0.37284276126558</v>
-      </c>
-      <c r="E149" t="n">
-        <v>0</v>
-      </c>
-      <c r="F149" t="n">
-        <v>0.2215909090909091</v>
-      </c>
-      <c r="G149" t="n">
-        <v>0</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>status_gizi_tbu</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>FocalOversample_XGB_Original_FocalWeight</t>
-        </is>
-      </c>
-      <c r="C150" t="n">
-        <v>0.1556350569896078</v>
-      </c>
-      <c r="D150" t="n">
-        <v>0.4440516139341643</v>
-      </c>
-      <c r="E150" t="n">
-        <v>0.3223039215686275</v>
-      </c>
-      <c r="F150" t="n">
-        <v>0.1875</v>
-      </c>
-      <c r="G150" t="n">
-        <v>0.1052631578947368</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0.0738255033557047</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="J150" t="n">
-        <v>0.2547770700636943</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0.1375</v>
-      </c>
-      <c r="L150" t="n">
-        <v>0.1052631578947368</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>status_gizi_tbu</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Optuna_XGB_AggressiveTuned</t>
-        </is>
-      </c>
-      <c r="C151" t="n">
-        <v>0.1092763912794033</v>
-      </c>
-      <c r="D151" t="n">
-        <v>0.4017857142857143</v>
-      </c>
-      <c r="E151" t="n">
-        <v>0.06502571082879613</v>
-      </c>
-      <c r="F151" t="n">
-        <v>0.1136363636363636</v>
-      </c>
-      <c r="G151" t="n">
-        <v>0</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="J151" t="n">
-        <v>0.2168674698795181</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0</v>
-      </c>
-      <c r="L151" t="n">
         <v>0.09523809523809523</v>
       </c>
     </row>
@@ -6233,7 +5621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7079,20 +6467,20 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Previous_EnsembleSoft_SMOTEENN</t>
+          <t>FocalOversample_LightGBM_BorderlineSMOTE_NoWeight</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.5897363818090955</v>
+        <v>0.5759158060482564</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7327380952380953</v>
+        <v>0.5473639455782313</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.6147360703812317</v>
       </c>
       <c r="F22" t="n">
-        <v>0.6988636363636364</v>
+        <v>0.9034090909090909</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -7100,10 +6488,18 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.9470198675496688</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.8181818181818182</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -7113,20 +6509,20 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FocalOversample_LightGBM_BorderlineSMOTE_NoWeight</t>
+          <t>FocalOversample_LightGBM_AggressiveROS_NoWeight</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.5759158060482564</v>
+        <v>0.5733766233766233</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5473639455782313</v>
+        <v>0.5149659863945578</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6147360703812317</v>
+        <v>0.6909937888198758</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9034090909090909</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -7138,13 +6534,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="K23" t="n">
-        <v>0.9470198675496688</v>
+        <v>0.948051948051948</v>
       </c>
       <c r="L23" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="24">
@@ -7155,20 +6551,20 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FocalOversample_LightGBM_AggressiveROS_NoWeight</t>
+          <t>FocalOversample_LightGBM_SMOTETomek_Aggressive_NoWeight</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.5733766233766233</v>
+        <v>0.571045810924642</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5149659863945578</v>
+        <v>0.5323979591836735</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6909937888198758</v>
+        <v>0.6403481012658228</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.9034090909090909</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -7180,13 +6576,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="K24" t="n">
-        <v>0.948051948051948</v>
+        <v>0.9442622950819672</v>
       </c>
       <c r="L24" t="n">
-        <v>0.8</v>
+        <v>0.8181818181818182</v>
       </c>
     </row>
     <row r="25">
@@ -7197,20 +6593,20 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FocalOversample_LightGBM_SMOTETomek_Aggressive_NoWeight</t>
+          <t>Optuna_LGBM_AggressiveTuned</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.571045810924642</v>
+        <v>0.5626535626535627</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5323979591836735</v>
+        <v>0.5555272108843538</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6403481012658228</v>
+        <v>0.5741906829846032</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9034090909090909</v>
+        <v>0.8806818181818182</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -7222,10 +6618,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.5217391304347826</v>
+        <v>0.5</v>
       </c>
       <c r="K25" t="n">
-        <v>0.9442622950819672</v>
+        <v>0.9324324324324325</v>
       </c>
       <c r="L25" t="n">
         <v>0.8181818181818182</v>
@@ -7239,20 +6635,20 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Optuna_LGBM_AggressiveTuned</t>
+          <t>Previous_LightGBM_Tuned_Original</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.5626535626535627</v>
+        <v>0.5548914847016659</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5555272108843538</v>
+        <v>0.5073979591836735</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5741906829846032</v>
+        <v>0.6369390103567318</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8806818181818182</v>
+        <v>0.8977272727272727</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -7260,18 +6656,10 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.9324324324324325</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.8181818181818182</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7281,20 +6669,20 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Previous_LightGBM_Tuned_Original</t>
+          <t>Previous_CatBoost_Tuned_Original</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.5548914847016659</v>
+        <v>0.5286754507628293</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5073979591836735</v>
+        <v>0.4757653061224489</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6369390103567318</v>
+        <v>0.6508487654320988</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8977272727272727</v>
+        <v>0.8920454545454546</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -7315,31 +6703,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Previous_CatBoost_Tuned_Original</t>
+          <t>FocalOversample_BalancedRF_Original</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.5286754507628293</v>
+        <v>0.5275428359122301</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4757653061224489</v>
+        <v>0.8024659863945578</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6508487654320988</v>
+        <v>0.4660368651491902</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8920454545454546</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.4390243902439024</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+        <v>0.6598639455782312</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.782258064516129</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.4390243902439024</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7349,38 +6745,38 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FocalOversample_BalancedRF_Original</t>
+          <t>Stacking_SoftVoting</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.5275428359122301</v>
+        <v>0.5234547461368653</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8024659863945578</v>
+        <v>0.5089285714285714</v>
       </c>
       <c r="E29" t="n">
-        <v>0.4660368651491902</v>
+        <v>0.5521953405017921</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6818181818181818</v>
+        <v>0.875</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4390243902439024</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.6598639455782312</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4444444444444444</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="K29" t="n">
-        <v>0.782258064516129</v>
+        <v>0.9271523178807947</v>
       </c>
       <c r="L29" t="n">
-        <v>0.4390243902439024</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="30">
@@ -7391,7 +6787,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Stacking_SoftVoting</t>
+          <t>Stacking_WeightedSoftVoting</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -7433,20 +6829,20 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Stacking_WeightedSoftVoting</t>
+          <t>FocalOversample_XGB_BorderlineSMOTE_NoWeight</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.5234547461368653</v>
+        <v>0.5203362923605261</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5089285714285714</v>
+        <v>0.4914965986394557</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5521953405017921</v>
+        <v>0.5850731546934078</v>
       </c>
       <c r="F31" t="n">
-        <v>0.875</v>
+        <v>0.8806818181818182</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -7458,13 +6854,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="K31" t="n">
-        <v>0.9271523178807947</v>
+        <v>0.9311475409836065</v>
       </c>
       <c r="L31" t="n">
-        <v>0.75</v>
+        <v>0.6956521739130435</v>
       </c>
     </row>
     <row r="32">
@@ -7475,38 +6871,38 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>FocalOversample_XGB_BorderlineSMOTE_NoWeight</t>
+          <t>Optuna_XGB_AggressiveTuned</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.5203362923605261</v>
+        <v>0.5140473082888813</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4914965986394557</v>
+        <v>0.6806122448979592</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5850731546934078</v>
+        <v>0.6181759204857031</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8806818181818182</v>
+        <v>0.5227272727272727</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.3146067415730337</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.4557823129251701</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J32" t="n">
+        <v>0.3146067415730337</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.6203703703703703</v>
+      </c>
+      <c r="L32" t="n">
         <v>0.4545454545454545</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.9311475409836065</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0.6956521739130435</v>
       </c>
     </row>
     <row r="33">
@@ -7517,39 +6913,31 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Optuna_XGB_AggressiveTuned</t>
+          <t>Previous_XGB_OriginalWeighted_TunedCV</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.5140473082888813</v>
+        <v>0.5126436781609195</v>
       </c>
       <c r="D33" t="n">
-        <v>0.6806122448979592</v>
+        <v>0.5470238095238096</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6181759204857031</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.5227272727272727</v>
+        <v>0.8522727272727273</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3146067415730337</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.4557823129251701</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.3146067415730337</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.6203703703703703</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0.4545454545454545</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7559,20 +6947,20 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Previous_XGB_OriginalWeighted_TunedCV</t>
+          <t>Previous_CatBoost_Original</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.5126436781609195</v>
+        <v>0.5051206784083496</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5470238095238096</v>
+        <v>0.5303571428571429</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>0.4866020114942529</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8522727272727273</v>
+        <v>0.8465909090909091</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -7593,31 +6981,39 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Previous_CatBoost_Original</t>
+          <t>Stacking_Stacking_LR</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.5051206784083496</v>
+        <v>0.5041883555041449</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5303571428571429</v>
+        <v>0.6584183673469388</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4866020114942529</v>
+        <v>0.5910326086956522</v>
       </c>
       <c r="F35" t="n">
-        <v>0.8465909090909091</v>
+        <v>0.7784090909090909</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+        <v>0.2</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.1538461538461539</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.8771929824561403</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7627,38 +7023,38 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Stacking_Stacking_LR</t>
+          <t>FocalOversample_CatBoost_BorderlineSMOTE_NoWeight</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.5041883555041449</v>
+        <v>0.4839019228009758</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6584183673469388</v>
+        <v>0.465561224489796</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5910326086956522</v>
+        <v>0.5248397435897436</v>
       </c>
       <c r="F36" t="n">
-        <v>0.7784090909090909</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1538461538461539</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.1538461538461539</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="K36" t="n">
-        <v>0.8771929824561403</v>
+        <v>0.9174917491749175</v>
       </c>
       <c r="L36" t="n">
-        <v>0.7</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="37">
@@ -7669,38 +7065,38 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>FocalOversample_CatBoost_BorderlineSMOTE_NoWeight</t>
+          <t>FocalOversample_XGB_Original_FocalWeight</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.4839019228009758</v>
+        <v>0.4660910518053376</v>
       </c>
       <c r="D37" t="n">
-        <v>0.465561224489796</v>
+        <v>0.6674319727891156</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5248397435897436</v>
+        <v>0.6080048798798798</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8579545454545454</v>
+        <v>0.4147727272727273</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>0.3197278911564626</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J37" t="n">
-        <v>0.4347826086956522</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="K37" t="n">
-        <v>0.9174917491749175</v>
+        <v>0.4820512820512821</v>
       </c>
       <c r="L37" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.4489795918367347</v>
       </c>
     </row>
     <row r="38">
@@ -7711,39 +7107,31 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>FocalOversample_XGB_Original_FocalWeight</t>
+          <t>Previous_RF_Original</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.4660910518053376</v>
+        <v>0.4494256925219664</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6674319727891156</v>
+        <v>0.4240646258503401</v>
       </c>
       <c r="E38" t="n">
-        <v>0.6080048798798798</v>
+        <v>0.6445121951219512</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4147727272727273</v>
+        <v>0.8693181818181818</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2666666666666667</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.3197278911564626</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.4820512820512821</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0.4489795918367347</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -7753,31 +7141,39 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Previous_RF_Original</t>
+          <t>FocalOversample_EasyEnsemble_Original</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.4494256925219664</v>
+        <v>0.412097812097812</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4240646258503401</v>
+        <v>0.7167517006802722</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6445121951219512</v>
+        <v>0.4120679012345678</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8693181818181818</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+        <v>0.5170068027210885</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.4864864864864865</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -7787,39 +7183,31 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>FocalOversample_EasyEnsemble_Original</t>
+          <t>Previous_RF_SMOTEENN</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.412097812097812</v>
+        <v>0.4091478696741854</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7167517006802722</v>
+        <v>0.5079081632653062</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4120679012345678</v>
+        <v>0.380166511048864</v>
       </c>
       <c r="F40" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.7215909090909091</v>
       </c>
       <c r="G40" t="n">
-        <v>0.09523809523809523</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.5170068027210885</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.09523809523809523</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0.4864864864864865</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -7829,20 +7217,20 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Previous_RF_SMOTEENN</t>
+          <t>Previous_RF_SMOTE</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.4091478696741854</v>
+        <v>0.4083305036785512</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5079081632653062</v>
+        <v>0.4312925170068027</v>
       </c>
       <c r="E41" t="n">
-        <v>0.380166511048864</v>
+        <v>0.452485380116959</v>
       </c>
       <c r="F41" t="n">
-        <v>0.7215909090909091</v>
+        <v>0.8295454545454546</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -7863,7 +7251,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Previous_RF_SMOTE</t>
+          <t>Previous_RF_SMOTETomek</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -7897,20 +7285,20 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Previous_RF_SMOTETomek</t>
+          <t>Previous_BalancedRF_Original</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.4083305036785512</v>
+        <v>0.3856521739130435</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4312925170068027</v>
+        <v>0.5058673469387756</v>
       </c>
       <c r="E43" t="n">
-        <v>0.452485380116959</v>
+        <v>0.3659580985052683</v>
       </c>
       <c r="F43" t="n">
-        <v>0.8295454545454546</v>
+        <v>0.6647727272727273</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -7922,210 +7310,6 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>status_gizi_bbtb</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Previous_BalancedRF_Original</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>0.3856521739130435</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.5058673469387756</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.3659580985052683</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0.6647727272727273</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>status_gizi_bbtb</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Previous_ExtraTrees_ADASYN</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>0.3850764386783506</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.3913265306122449</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0.8238636363636364</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>status_gizi_bbtb</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Previous_ExtraTrees_SMOTETomek</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>0.3743776563448694</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.3721938775510205</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.8238636363636364</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>status_gizi_bbtb</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Previous_ExtraTrees_SMOTE</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>0.3743776563448694</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.3721938775510205</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0.8238636363636364</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>status_gizi_bbtb</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Previous_ExtraTrees_SMOTEENN</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>0.327607425949103</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.4191326530612245</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>status_gizi_bbtb</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Previous_ExtraTrees_Original</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>0.273015873015873</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.2748299319727891</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8138,7 +7322,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9514,20 +8698,20 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Previous_EnsembleSoft_SMOTETomek</t>
+          <t>Previous_RF_SMOTEENN</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.4025412796697626</v>
+        <v>0.3994022629531026</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3954884414615958</v>
+        <v>0.5394854586129754</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>0.3750718886588452</v>
       </c>
       <c r="F35" t="n">
-        <v>0.8465909090909091</v>
+        <v>0.6875</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -9548,20 +8732,20 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Previous_RF_SMOTEENN</t>
+          <t>FocalOversample_CatBoost_SVMSMOTE_NoWeight</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.3994022629531026</v>
+        <v>0.3975787284610814</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5394854586129754</v>
+        <v>0.4054436987322894</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3750718886588452</v>
+        <v>0.4064025146827694</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6875</v>
+        <v>0.8295454545454546</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -9569,10 +8753,18 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.9084967320261438</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9582,20 +8774,20 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>FocalOversample_CatBoost_SVMSMOTE_NoWeight</t>
+          <t>Previous_XGB_SMOTEENN</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.3975787284610814</v>
+        <v>0.3963155238301247</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4054436987322894</v>
+        <v>0.5327740492170022</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4064025146827694</v>
+        <v>0.3790064102564102</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8295454545454546</v>
+        <v>0.6647727272727273</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -9603,18 +8795,10 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.1818181818181818</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.9084967320261438</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9624,20 +8808,20 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Previous_XGB_SMOTEENN</t>
+          <t>Previous_XGB_SMOTETomek</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.3963155238301247</v>
+        <v>0.3951082153400651</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5327740492170022</v>
+        <v>0.3954884414615958</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3790064102564102</v>
+        <v>0.4220679012345679</v>
       </c>
       <c r="F38" t="n">
-        <v>0.6647727272727273</v>
+        <v>0.8465909090909091</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -9658,20 +8842,20 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Previous_XGB_SMOTETomek</t>
+          <t>FocalOversample_LightGBM_SMOTETomek_Aggressive_NoWeight</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.3951082153400651</v>
+        <v>0.392921146953405</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3954884414615958</v>
+        <v>0.3938105891126025</v>
       </c>
       <c r="E39" t="n">
-        <v>0.4220679012345679</v>
+        <v>0.4093857832988268</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8465909090909091</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -9679,10 +8863,18 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.9161290322580645</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.5555555555555556</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9692,20 +8884,20 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>FocalOversample_LightGBM_SMOTETomek_Aggressive_NoWeight</t>
+          <t>Previous_RF_SMOTE</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.392921146953405</v>
+        <v>0.3906924551532814</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3938105891126025</v>
+        <v>0.4182326621923937</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4093857832988268</v>
+        <v>0.3994036027263875</v>
       </c>
       <c r="F40" t="n">
-        <v>0.8409090909090909</v>
+        <v>0.8352272727272727</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -9713,18 +8905,10 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.9161290322580645</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0.5555555555555556</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9734,17 +8918,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Previous_ExtraTrees_SMOTE</t>
+          <t>Stacking_SoftVoting</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.3919542093364677</v>
+        <v>0.3853140916808149</v>
       </c>
       <c r="D41" t="n">
-        <v>0.3810216256524981</v>
+        <v>0.3921327367636093</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>0.406444099378882</v>
       </c>
       <c r="F41" t="n">
         <v>0.8352272727272727</v>
@@ -9755,10 +8939,18 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.9096774193548387</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.5263157894736842</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9768,20 +8960,20 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Previous_RF_SMOTE</t>
+          <t>Stacking_WeightedSoftVoting</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.3906924551532814</v>
+        <v>0.3826611984506721</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4182326621923937</v>
+        <v>0.390454884414616</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3994036027263875</v>
+        <v>0.3867924528301887</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8352272727272727</v>
+        <v>0.8295454545454546</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -9789,10 +8981,18 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.5263157894736842</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9802,17 +9002,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Stacking_SoftVoting</t>
+          <t>Previous_RF_SMOTETomek</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.3853140916808149</v>
+        <v>0.3794711292795094</v>
       </c>
       <c r="D43" t="n">
         <v>0.3921327367636093</v>
       </c>
       <c r="E43" t="n">
-        <v>0.406444099378882</v>
+        <v>0.3964488636363637</v>
       </c>
       <c r="F43" t="n">
         <v>0.8352272727272727</v>
@@ -9823,18 +9023,10 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.1052631578947368</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.9096774193548387</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0.5263157894736842</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9844,11 +9036,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Stacking_WeightedSoftVoting</t>
+          <t>Previous_RF_ADASYN</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.3826611984506721</v>
+        <v>0.3726361357940305</v>
       </c>
       <c r="D44" t="n">
         <v>0.390454884414616</v>
@@ -9865,18 +9057,10 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.09523809523809523</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.9090909090909091</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0.5263157894736842</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9886,20 +9070,20 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Previous_RF_SMOTETomek</t>
+          <t>Previous_RF_Original</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.3794711292795094</v>
+        <v>0.3279874213836478</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3921327367636093</v>
+        <v>0.3266219239373602</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3964488636363637</v>
+        <v>0.3394970414201184</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8352272727272727</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -9920,17 +9104,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Previous_RF_ADASYN</t>
+          <t>Stacking_Stacking_LR</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.3726361357940305</v>
+        <v>0.3247284878863826</v>
       </c>
       <c r="D46" t="n">
-        <v>0.390454884414616</v>
+        <v>0.3121551081282625</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3867924528301887</v>
+        <v>0.3778614457831325</v>
       </c>
       <c r="F46" t="n">
         <v>0.8295454545454546</v>
@@ -9941,222 +9125,18 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>status_gizi_bbu</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Previous_ExtraTrees_SMOTETomek</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>0.3673305860805861</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.3532438478747204</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0.8295454545454546</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>status_gizi_bbu</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Previous_ExtraTrees_ADASYN</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>0.3673305860805861</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.3532438478747204</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.8295454545454546</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>status_gizi_bbu</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Previous_ExtraTrees_SMOTEENN</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>0.3477642276422764</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.5010067114093959</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0.6079545454545454</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>status_gizi_bbu</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Previous_RF_Original</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>0.3279874213836478</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.3266219239373602</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.3394970414201184</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.8409090909090909</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>status_gizi_bbu</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Stacking_Stacking_LR</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>0.3247284878863826</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.3121551081282625</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.3778614457831325</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0.8295454545454546</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
         <v>0.1052631578947368</v>
       </c>
-      <c r="K51" t="n">
+      <c r="K46" t="n">
         <v>0.9079365079365079</v>
       </c>
-      <c r="L51" t="n">
+      <c r="L46" t="n">
         <v>0.2857142857142857</v>
       </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>status_gizi_bbu</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Previous_ExtraTrees_Original</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>0.2515625</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.2599552572706935</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.8295454545454546</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10169,7 +9149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10719,20 +9699,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Previous_EnsembleSoft_Original</t>
+          <t>FocalOversample_LightGBM_SMOTETomek_Aggressive_NoWeight</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.4970947337452192</v>
+        <v>0.4892742905772222</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4716962288271013</v>
+        <v>0.4432326621923937</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.5808939873417721</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8352272727272727</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -10740,10 +9720,18 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.3783783783783784</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.9120521172638436</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10753,7 +9741,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FocalOversample_LightGBM_SMOTETomek_Aggressive_NoWeight</t>
+          <t>ThresholdOpt_LightGBM_SMOTETomek_Aggressive_NoWeight</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -10795,20 +9783,20 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ThresholdOpt_LightGBM_SMOTETomek_Aggressive_NoWeight</t>
+          <t>Previous_XGB_SMOTETomek</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.4892742905772222</v>
+        <v>0.4858961128310973</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4432326621923937</v>
+        <v>0.4415548098434005</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5808939873417721</v>
+        <v>0.5742787560884226</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8409090909090909</v>
+        <v>0.8352272727272727</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -10816,18 +9804,10 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.3783783783783784</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.9120521172638436</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.6666666666666666</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10837,20 +9817,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Previous_XGB_SMOTETomek</t>
+          <t>FocalOversample_CatBoost_AggressiveROS_NoWeight</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.4858961128310973</v>
+        <v>0.4778919799278105</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4415548098434005</v>
+        <v>0.4703978906999041</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5742787560884226</v>
+        <v>0.4903085443037974</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8352272727272727</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -10858,10 +9838,18 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.4864864864864865</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.9250814332247557</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -10871,20 +9859,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FocalOversample_CatBoost_AggressiveROS_NoWeight</t>
+          <t>Previous_XGB_SMOTE</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.4778919799278105</v>
+        <v>0.4772727272727273</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4703978906999041</v>
+        <v>0.4313279002876318</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4903085443037974</v>
+        <v>0.5701257861635221</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8636363636363636</v>
+        <v>0.8352272727272727</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -10892,18 +9880,10 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.4864864864864865</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.9250814332247557</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -10913,20 +9893,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Previous_XGB_SMOTE</t>
+          <t>Previous_XGB_ADASYN</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.4772727272727273</v>
+        <v>0.4748719307542837</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4313279002876318</v>
+        <v>0.4296500479386385</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5701257861635221</v>
+        <v>0.5650875796178344</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8352272727272727</v>
+        <v>0.8295454545454546</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -10947,17 +9927,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Previous_XGB_ADASYN</t>
+          <t>FocalOversample_XGB_SMOTETomek_Aggressive_NoWeight</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.4748719307542837</v>
+        <v>0.4741321125685947</v>
       </c>
       <c r="D20" t="n">
         <v>0.4296500479386385</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5650875796178344</v>
+        <v>0.5636867088607596</v>
       </c>
       <c r="F20" t="n">
         <v>0.8295454545454546</v>
@@ -10968,10 +9948,18 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.3243243243243243</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.9055374592833876</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -10981,20 +9969,20 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FocalOversample_XGB_SMOTETomek_Aggressive_NoWeight</t>
+          <t>Previous_RF_Original</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.4741321125685947</v>
+        <v>0.4718728162124388</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4296500479386385</v>
+        <v>0.419263342921061</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5636867088607596</v>
+        <v>0.6341222879684418</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8295454545454546</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -11002,18 +9990,10 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.3243243243243243</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.9055374592833876</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0.6666666666666666</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -11023,31 +10003,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Previous_RF_Original</t>
+          <t>FocalOversample_CatBoost_Original_FocalWeight</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.4718728162124388</v>
+        <v>0.4688461538461539</v>
       </c>
       <c r="D22" t="n">
-        <v>0.419263342921061</v>
+        <v>0.525467401725791</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6341222879684418</v>
+        <v>0.497053276756247</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8636363636363636</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+        <v>0.25</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.3296703296703297</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -11057,39 +10045,31 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FocalOversample_CatBoost_Original_FocalWeight</t>
+          <t>Previous_CatBoost_Tanpa_SMOTE_CW</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.4688461538461539</v>
+        <v>0.4661184210526316</v>
       </c>
       <c r="D23" t="n">
-        <v>0.525467401725791</v>
+        <v>0.4653643336529242</v>
       </c>
       <c r="E23" t="n">
-        <v>0.497053276756247</v>
+        <v>0.4676146010186757</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.8465909090909091</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.3296703296703297</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -11099,20 +10079,20 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Previous_CatBoost_Tanpa_SMOTE_CW</t>
+          <t>Previous_CatBoost_Original</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.4661184210526316</v>
+        <v>0.4493821676627362</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4653643336529242</v>
+        <v>0.4501038670501758</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4676146010186757</v>
+        <v>0.4488562091503268</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8465909090909091</v>
+        <v>0.8295454545454546</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -11133,20 +10113,20 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Previous_CatBoost_Original</t>
+          <t>Previous_LightGBM_Tuned_Original</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.4493821676627362</v>
+        <v>0.4416305916305916</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4501038670501758</v>
+        <v>0.3959931287951422</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4488562091503268</v>
+        <v>0.6066037735849057</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8295454545454546</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -11167,20 +10147,20 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Previous_LightGBM_Tuned_Original</t>
+          <t>Previous_RF_SMOTE</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.4416305916305916</v>
+        <v>0.4114125122189638</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3959931287951422</v>
+        <v>0.407518376478108</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6066037735849057</v>
+        <v>0.4257246376811594</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8579545454545454</v>
+        <v>0.8238636363636364</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -11201,20 +10181,20 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Previous_RF_SMOTE</t>
+          <t>FocalOversample_CatBoost_SMOTETomek_Aggressive_NoWeight</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.4114125122189638</v>
+        <v>0.3307533539731682</v>
       </c>
       <c r="D27" t="n">
-        <v>0.407518376478108</v>
+        <v>0.3267817193991691</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4257246376811594</v>
+        <v>0.3373922817534657</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8238636363636364</v>
+        <v>0.8295454545454546</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -11222,10 +10202,18 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.4210526315789473</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.9019607843137255</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -11235,20 +10223,20 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FocalOversample_CatBoost_SMOTETomek_Aggressive_NoWeight</t>
+          <t>FocalOversample_CatBoost_BorderlineSMOTE_NoWeight</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.3307533539731682</v>
+        <v>0.3290322580645161</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3267817193991691</v>
+        <v>0.3215883668903803</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3373922817534657</v>
+        <v>0.3454968944099379</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8295454545454546</v>
+        <v>0.8465909090909091</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -11260,10 +10248,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.4</v>
       </c>
       <c r="K28" t="n">
-        <v>0.9019607843137255</v>
+        <v>0.9161290322580645</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -11277,20 +10265,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FocalOversample_CatBoost_BorderlineSMOTE_NoWeight</t>
+          <t>Previous_CatBoost_Tuned_Original</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.3290322580645161</v>
+        <v>0.3276659132936101</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3215883668903803</v>
+        <v>0.3147171620325983</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3454968944099379</v>
+        <v>0.3696969696969697</v>
       </c>
       <c r="F29" t="n">
-        <v>0.8465909090909091</v>
+        <v>0.8579545454545454</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -11298,18 +10286,10 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.9161290322580645</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -11319,20 +10299,20 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Previous_CatBoost_Tuned_Original</t>
+          <t>FocalOversample_LightGBM_BorderlineSMOTE_NoWeight</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.3276659132936101</v>
+        <v>0.3261183261183261</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3147171620325983</v>
+        <v>0.319910514541387</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3696969696969697</v>
+        <v>0.3383647798742139</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8579545454545454</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -11340,10 +10320,18 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.9155844155844156</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -11353,7 +10341,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FocalOversample_LightGBM_BorderlineSMOTE_NoWeight</t>
+          <t>Stacking_WeightedSoftVoting</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -11395,20 +10383,20 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Stacking_WeightedSoftVoting</t>
+          <t>FocalOversample_XGB_SVMSMOTE_NoWeight</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.3261183261183261</v>
+        <v>0.3208126278865829</v>
       </c>
       <c r="D32" t="n">
-        <v>0.319910514541387</v>
+        <v>0.3113614573346117</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3383647798742139</v>
+        <v>0.345679012345679</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8409090909090909</v>
+        <v>0.8465909090909091</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -11420,10 +10408,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.3888888888888889</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="K32" t="n">
-        <v>0.9155844155844156</v>
+        <v>0.9196141479099679</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -11437,20 +10425,20 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FocalOversample_XGB_SVMSMOTE_NoWeight</t>
+          <t>FocalOversample_XGB_BorderlineSMOTE_NoWeight</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.3208126278865829</v>
+        <v>0.3172675521821632</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3113614573346117</v>
+        <v>0.3096836049856184</v>
       </c>
       <c r="E33" t="n">
-        <v>0.345679012345679</v>
+        <v>0.3358815097945533</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8465909090909091</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -11462,10 +10450,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="K33" t="n">
-        <v>0.9196141479099679</v>
+        <v>0.9161290322580645</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -11479,20 +10467,20 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>FocalOversample_XGB_BorderlineSMOTE_NoWeight</t>
+          <t>FocalOversample_LightGBM_SVMSMOTE_NoWeight</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.3172675521821632</v>
+        <v>0.313869625520111</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3096836049856184</v>
+        <v>0.3080057526366251</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3358815097945533</v>
+        <v>0.3274553571428571</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8409090909090909</v>
+        <v>0.8352272727272727</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -11504,10 +10492,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.3529411764705883</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="K34" t="n">
-        <v>0.9161290322580645</v>
+        <v>0.912621359223301</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -11521,7 +10509,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>FocalOversample_LightGBM_SVMSMOTE_NoWeight</t>
+          <t>Stacking_SoftVoting</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -11563,17 +10551,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Stacking_SoftVoting</t>
+          <t>FocalOversample_CatBoost_SVMSMOTE_NoWeight</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.313869625520111</v>
+        <v>0.3131336405529954</v>
       </c>
       <c r="D36" t="n">
         <v>0.3080057526366251</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3274553571428571</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="F36" t="n">
         <v>0.8352272727272727</v>
@@ -11591,7 +10579,7 @@
         <v>0.3428571428571429</v>
       </c>
       <c r="K36" t="n">
-        <v>0.912621359223301</v>
+        <v>0.9096774193548387</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -11605,20 +10593,20 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>FocalOversample_CatBoost_SVMSMOTE_NoWeight</t>
+          <t>Previous_RF_SMOTETomek</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.3131336405529954</v>
+        <v>0.3115207373271889</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3080057526366251</v>
+        <v>0.3063279002876318</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3260869565217391</v>
+        <v>0.3245341614906832</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8352272727272727</v>
+        <v>0.8295454545454546</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -11626,18 +10614,10 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.3428571428571429</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.9096774193548387</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -11647,20 +10627,20 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Previous_RF_SMOTETomek</t>
+          <t>Previous_RF_ADASYN</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.3115207373271889</v>
+        <v>0.3049620607028754</v>
       </c>
       <c r="D38" t="n">
-        <v>0.3063279002876318</v>
+        <v>0.2977788430808565</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3245341614906832</v>
+        <v>0.33009977827051</v>
       </c>
       <c r="F38" t="n">
-        <v>0.8295454545454546</v>
+        <v>0.8352272727272727</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -11681,20 +10661,20 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Previous_RF_ADASYN</t>
+          <t>Stacking_Stacking_LR</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.3049620607028754</v>
+        <v>0.2814041745730551</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2977788430808565</v>
+        <v>0.2791626717801214</v>
       </c>
       <c r="E39" t="n">
-        <v>0.33009977827051</v>
+        <v>0.2912087912087912</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8352272727272727</v>
+        <v>0.8068181818181818</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -11702,10 +10682,18 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.8903225806451613</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -11715,20 +10703,20 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Stacking_Stacking_LR</t>
+          <t>Previous_RF_SMOTEENN</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.2814041745730551</v>
+        <v>0.242043795620438</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2791626717801214</v>
+        <v>0.406240012783637</v>
       </c>
       <c r="E40" t="n">
-        <v>0.2912087912087912</v>
+        <v>0.3086967545638945</v>
       </c>
       <c r="F40" t="n">
-        <v>0.8068181818181818</v>
+        <v>0.3693181818181818</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -11736,18 +10724,10 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.2352941176470588</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.8903225806451613</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -11757,20 +10737,20 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Previous_ExtraTrees_SMOTETomek</t>
+          <t>Previous_XGB_SMOTEENN</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.2763347763347763</v>
+        <v>0.2389245950717933</v>
       </c>
       <c r="D41" t="n">
-        <v>0.2758069670821349</v>
+        <v>0.4127916267178012</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>0.2949820788530466</v>
       </c>
       <c r="F41" t="n">
-        <v>0.7954545454545454</v>
+        <v>0.4261363636363636</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -11791,31 +10771,39 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Previous_ExtraTrees_ADASYN</t>
+          <t>FocalOversample_BalancedRF_Original</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.2763347763347763</v>
+        <v>0.2288790645202919</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2758069670821349</v>
+        <v>0.4159276126558006</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>0.2943637772127761</v>
       </c>
       <c r="F42" t="n">
-        <v>0.7954545454545454</v>
+        <v>0.3693181818181818</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+        <v>0.25</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.05714285714285714</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.2962962962962963</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.4975609756097561</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.06451612903225806</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11825,31 +10813,39 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Previous_ExtraTrees_SMOTE</t>
+          <t>FocalOversample_EasyEnsemble_Original</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.2763347763347763</v>
+        <v>0.2263229023907416</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2758069670821349</v>
+        <v>0.4415747842761266</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>0.294055944055944</v>
       </c>
       <c r="F43" t="n">
-        <v>0.7954545454545454</v>
+        <v>0.3522727272727273</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+        <v>0.25</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.303030303030303</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.4522613065326633</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.08333333333333333</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11859,20 +10855,20 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Previous_ExtraTrees_Original</t>
+          <t>Previous_BalancedRF_Original</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.2629218677762367</v>
+        <v>0.2112957064895719</v>
       </c>
       <c r="D44" t="n">
-        <v>0.263902205177373</v>
+        <v>0.4127317034196229</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>0.2829134050880626</v>
       </c>
       <c r="F44" t="n">
-        <v>0.7897727272727273</v>
+        <v>0.3238636363636364</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -11893,31 +10889,39 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Previous_RF_SMOTEENN</t>
+          <t>FocalOversample_XGB_Original_FocalWeight</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.242043795620438</v>
+        <v>0.1556350569896078</v>
       </c>
       <c r="D45" t="n">
-        <v>0.406240012783637</v>
+        <v>0.4440516139341643</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3086967545638945</v>
+        <v>0.3223039215686275</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3693181818181818</v>
+        <v>0.1875</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+        <v>0.0738255033557047</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.2547770700636943</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.1375</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.1052631578947368</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11927,20 +10931,20 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Previous_XGB_SMOTEENN</t>
+          <t>Optuna_XGB_AggressiveTuned</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.2389245950717933</v>
+        <v>0.1092763912794033</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4127916267178012</v>
+        <v>0.4017857142857143</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2949820788530466</v>
+        <v>0.06502571082879613</v>
       </c>
       <c r="F46" t="n">
-        <v>0.4261363636363636</v>
+        <v>0.1136363636363636</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -11948,244 +10952,16 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>status_gizi_tbu</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>FocalOversample_BalancedRF_Original</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>0.2288790645202919</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.4159276126558006</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.2943637772127761</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0.3693181818181818</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0.05714285714285714</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0.05714285714285714</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.2962962962962963</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.4975609756097561</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0.06451612903225806</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>status_gizi_tbu</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>FocalOversample_EasyEnsemble_Original</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>0.2263229023907416</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.4415747842761266</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.294055944055944</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.3522727272727273</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.303030303030303</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.4522613065326633</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0.08333333333333333</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>status_gizi_tbu</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Previous_BalancedRF_Original</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>0.2112957064895719</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.4127317034196229</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.2829134050880626</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0.3238636363636364</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>status_gizi_tbu</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Previous_ExtraTrees_SMOTEENN</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>0.1834489071065434</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.37284276126558</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.2215909090909091</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>status_gizi_tbu</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>FocalOversample_XGB_Original_FocalWeight</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>0.1556350569896078</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.4440516139341643</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.3223039215686275</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0.1875</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0.1052631578947368</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0.0738255033557047</v>
-      </c>
-      <c r="I51" t="n">
+      <c r="I46" t="n">
         <v>0.125</v>
       </c>
-      <c r="J51" t="n">
-        <v>0.2547770700636943</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.1375</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0.1052631578947368</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>status_gizi_tbu</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Optuna_XGB_AggressiveTuned</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>0.1092763912794033</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.4017857142857143</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.06502571082879613</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.1136363636363636</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="J52" t="n">
+      <c r="J46" t="n">
         <v>0.2168674698795181</v>
       </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" t="n">
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
         <v>0.09523809523809523</v>
       </c>
     </row>
